--- a/Dados_ResItupararanga/IQA_Calculado.xlsx
+++ b/Dados_ResItupararanga/IQA_Calculado.xlsx
@@ -441,7 +441,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E2" t="n">
-        <v>85.28767750000002</v>
+        <v>85.1176775</v>
       </c>
       <c r="F2" t="n">
         <v>78.11831262296408</v>
@@ -462,7 +462,7 @@
         <v>93.20090364000001</v>
       </c>
       <c r="L2" t="n">
-        <v>91.68855917799038</v>
+        <v>91.67495917799039</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E3" t="n">
-        <v>87.53487749999999</v>
+        <v>87.36487749999999</v>
       </c>
       <c r="F3" t="n">
         <v>80.12220721002247</v>
@@ -500,7 +500,7 @@
         <v>95.991975</v>
       </c>
       <c r="L3" t="n">
-        <v>91.9195978244075</v>
+        <v>91.90599782440749</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>92.23125000000005</v>
       </c>
       <c r="E4" t="n">
-        <v>82.6906975</v>
+        <v>82.5206975</v>
       </c>
       <c r="F4" t="n">
         <v>78.11831262296408</v>
@@ -538,7 +538,7 @@
         <v>95.59958474999999</v>
       </c>
       <c r="L4" t="n">
-        <v>85.35968064295876</v>
+        <v>85.34608064295877</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +555,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E5" t="n">
-        <v>93.73093750000001</v>
+        <v>93.56093750000001</v>
       </c>
       <c r="F5" t="n">
         <v>78.11831262296408</v>
@@ -576,7 +576,7 @@
         <v>95.36488476</v>
       </c>
       <c r="L5" t="n">
-        <v>89.03474284014955</v>
+        <v>89.02114284014955</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E6" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F6" t="n">
         <v>78.11831262296408</v>
@@ -614,7 +614,7 @@
         <v>92.43967744</v>
       </c>
       <c r="L6" t="n">
-        <v>86.56833882883217</v>
+        <v>86.55473882883217</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +631,7 @@
         <v>86.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>94.2286975</v>
+        <v>94.05869749999999</v>
       </c>
       <c r="F7" t="n">
         <v>78.11831262296408</v>
@@ -652,7 +652,7 @@
         <v>95.991975</v>
       </c>
       <c r="L7" t="n">
-        <v>90.05790536896096</v>
+        <v>90.04430536896096</v>
       </c>
     </row>
     <row r="8">
@@ -669,7 +669,7 @@
         <v>92.23125000000005</v>
       </c>
       <c r="E8" t="n">
-        <v>85.95390999999999</v>
+        <v>85.78390999999999</v>
       </c>
       <c r="F8" t="n">
         <v>78.11831262296408</v>
@@ -690,7 +690,7 @@
         <v>95.991975</v>
       </c>
       <c r="L8" t="n">
-        <v>85.54145201914088</v>
+        <v>85.52785201914088</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>92.23125000000005</v>
       </c>
       <c r="E9" t="n">
-        <v>85.95390999999999</v>
+        <v>85.78390999999999</v>
       </c>
       <c r="F9" t="n">
         <v>78.11831262296408</v>
@@ -728,7 +728,7 @@
         <v>95.991975</v>
       </c>
       <c r="L9" t="n">
-        <v>85.54145201914088</v>
+        <v>85.52785201914088</v>
       </c>
     </row>
     <row r="10">
@@ -745,7 +745,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E10" t="n">
-        <v>90.09400000000001</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F10" t="n">
         <v>78.11831262296408</v>
@@ -766,7 +766,7 @@
         <v>91.01020274999999</v>
       </c>
       <c r="L10" t="n">
-        <v>84.98742192802455</v>
+        <v>84.97382192802455</v>
       </c>
     </row>
     <row r="11">
@@ -783,7 +783,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E11" t="n">
-        <v>90.09400000000001</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F11" t="n">
         <v>78.11831262296408</v>
@@ -804,7 +804,7 @@
         <v>91.01020274999999</v>
       </c>
       <c r="L11" t="n">
-        <v>84.98742192802455</v>
+        <v>84.97382192802455</v>
       </c>
     </row>
     <row r="12">
@@ -821,7 +821,7 @@
         <v>91.16845000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>86.6269375</v>
+        <v>86.4569375</v>
       </c>
       <c r="F12" t="n">
         <v>76.18085234335605</v>
@@ -842,7 +842,7 @@
         <v>95.991975</v>
       </c>
       <c r="L12" t="n">
-        <v>81.65171811522487</v>
+        <v>81.63811811522487</v>
       </c>
     </row>
     <row r="13">
@@ -859,7 +859,7 @@
         <v>91.16845000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>86.6269375</v>
+        <v>86.4569375</v>
       </c>
       <c r="F13" t="n">
         <v>76.18085234335605</v>
@@ -880,7 +880,7 @@
         <v>95.991975</v>
       </c>
       <c r="L13" t="n">
-        <v>81.65171811522487</v>
+        <v>81.63811811522487</v>
       </c>
     </row>
     <row r="14">
@@ -897,7 +897,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E14" t="n">
-        <v>90.80779749999999</v>
+        <v>90.63779749999999</v>
       </c>
       <c r="F14" t="n">
         <v>78.11831262296408</v>
@@ -918,7 +918,7 @@
         <v>94.89713664</v>
       </c>
       <c r="L14" t="n">
-        <v>91.67676922692409</v>
+        <v>91.6631692269241</v>
       </c>
     </row>
     <row r="15">
@@ -935,7 +935,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E15" t="n">
-        <v>90.80779749999999</v>
+        <v>90.63779749999999</v>
       </c>
       <c r="F15" t="n">
         <v>78.11831262296408</v>
@@ -956,7 +956,7 @@
         <v>94.89713664</v>
       </c>
       <c r="L15" t="n">
-        <v>91.67676922692409</v>
+        <v>91.6631692269241</v>
       </c>
     </row>
     <row r="16">
@@ -973,7 +973,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E16" t="n">
-        <v>90.80779749999999</v>
+        <v>90.63779749999999</v>
       </c>
       <c r="F16" t="n">
         <v>78.11831262296408</v>
@@ -994,7 +994,7 @@
         <v>94.74171003999999</v>
       </c>
       <c r="L16" t="n">
-        <v>86.51629086453133</v>
+        <v>86.50269086453133</v>
       </c>
     </row>
     <row r="17">
@@ -1011,7 +1011,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E17" t="n">
-        <v>90.80779749999999</v>
+        <v>90.63779749999999</v>
       </c>
       <c r="F17" t="n">
         <v>78.11831262296408</v>
@@ -1032,7 +1032,7 @@
         <v>94.74171003999999</v>
       </c>
       <c r="L17" t="n">
-        <v>86.51629086453133</v>
+        <v>86.50269086453133</v>
       </c>
     </row>
     <row r="18">
@@ -1049,7 +1049,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E18" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F18" t="n">
         <v>78.11831262296408</v>
@@ -1070,7 +1070,7 @@
         <v>95.991975</v>
       </c>
       <c r="L18" t="n">
-        <v>92.35280241080022</v>
+        <v>92.33920241080023</v>
       </c>
     </row>
     <row r="19">
@@ -1087,7 +1087,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E19" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F19" t="n">
         <v>78.11831262296408</v>
@@ -1108,7 +1108,7 @@
         <v>95.991975</v>
       </c>
       <c r="L19" t="n">
-        <v>92.35280241080022</v>
+        <v>92.33920241080023</v>
       </c>
     </row>
     <row r="20">
@@ -1125,7 +1125,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E20" t="n">
-        <v>89.38699750000001</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F20" t="n">
         <v>78.11831262296408</v>
@@ -1146,7 +1146,7 @@
         <v>95.991975</v>
       </c>
       <c r="L20" t="n">
-        <v>91.64798869449363</v>
+        <v>91.63438869449364</v>
       </c>
     </row>
     <row r="21">
@@ -1163,7 +1163,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E21" t="n">
-        <v>89.38699750000001</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F21" t="n">
         <v>78.11831262296408</v>
@@ -1184,7 +1184,7 @@
         <v>95.991975</v>
       </c>
       <c r="L21" t="n">
-        <v>91.64798869449363</v>
+        <v>91.63438869449364</v>
       </c>
     </row>
     <row r="22">
@@ -1201,7 +1201,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E22" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F22" t="n">
         <v>78.11831262296408</v>
@@ -1222,7 +1222,7 @@
         <v>95.991975</v>
       </c>
       <c r="L22" t="n">
-        <v>77.43454987154058</v>
+        <v>77.42094987154059</v>
       </c>
     </row>
     <row r="23">
@@ -1239,7 +1239,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E23" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F23" t="n">
         <v>78.11831262296408</v>
@@ -1260,7 +1260,7 @@
         <v>95.991975</v>
       </c>
       <c r="L23" t="n">
-        <v>77.43454987154058</v>
+        <v>77.42094987154059</v>
       </c>
     </row>
     <row r="24">
@@ -1277,7 +1277,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E24" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F24" t="n">
         <v>78.11831262296408</v>
@@ -1298,7 +1298,7 @@
         <v>95.13073539</v>
       </c>
       <c r="L24" t="n">
-        <v>89.76019729502542</v>
+        <v>89.7465972950254</v>
       </c>
     </row>
     <row r="25">
@@ -1315,7 +1315,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E25" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F25" t="n">
         <v>78.11831262296408</v>
@@ -1336,7 +1336,7 @@
         <v>95.13073539</v>
       </c>
       <c r="L25" t="n">
-        <v>89.76019729502542</v>
+        <v>89.7465972950254</v>
       </c>
     </row>
     <row r="26">
@@ -1353,7 +1353,7 @@
         <v>80.03942499999994</v>
       </c>
       <c r="E26" t="n">
-        <v>85.509</v>
+        <v>85.339</v>
       </c>
       <c r="F26" t="n">
         <v>78.11831262296408</v>
@@ -1374,7 +1374,7 @@
         <v>95.991975</v>
       </c>
       <c r="L26" t="n">
-        <v>87.50427810164098</v>
+        <v>87.49067810164098</v>
       </c>
     </row>
     <row r="27">
@@ -1391,7 +1391,7 @@
         <v>80.03942499999994</v>
       </c>
       <c r="E27" t="n">
-        <v>85.509</v>
+        <v>85.339</v>
       </c>
       <c r="F27" t="n">
         <v>78.11831262296408</v>
@@ -1412,7 +1412,7 @@
         <v>95.991975</v>
       </c>
       <c r="L27" t="n">
-        <v>87.50427810164098</v>
+        <v>87.49067810164098</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1429,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E28" t="n">
-        <v>91.77009750000001</v>
+        <v>91.60009749999999</v>
       </c>
       <c r="F28" t="n">
         <v>78.11831262296408</v>
@@ -1450,7 +1450,7 @@
         <v>95.59958474999999</v>
       </c>
       <c r="L28" t="n">
-        <v>88.98936606233639</v>
+        <v>88.97576606233639</v>
       </c>
     </row>
     <row r="29">
@@ -1467,7 +1467,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E29" t="n">
-        <v>91.77009750000001</v>
+        <v>91.60009749999999</v>
       </c>
       <c r="F29" t="n">
         <v>78.11831262296408</v>
@@ -1488,7 +1488,7 @@
         <v>95.59958474999999</v>
       </c>
       <c r="L29" t="n">
-        <v>88.98936606233639</v>
+        <v>88.97576606233639</v>
       </c>
     </row>
     <row r="30">
@@ -1505,7 +1505,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E30" t="n">
-        <v>91.52839</v>
+        <v>91.35839</v>
       </c>
       <c r="F30" t="n">
         <v>78.11831262296408</v>
@@ -1526,7 +1526,7 @@
         <v>95.991975</v>
       </c>
       <c r="L30" t="n">
-        <v>88.52900858057737</v>
+        <v>88.51540858057737</v>
       </c>
     </row>
     <row r="31">
@@ -1543,7 +1543,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E31" t="n">
-        <v>91.52839</v>
+        <v>91.35839</v>
       </c>
       <c r="F31" t="n">
         <v>78.11831262296408</v>
@@ -1564,7 +1564,7 @@
         <v>95.991975</v>
       </c>
       <c r="L31" t="n">
-        <v>88.52900858057737</v>
+        <v>88.51540858057737</v>
       </c>
     </row>
     <row r="32">
@@ -1581,7 +1581,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E32" t="n">
-        <v>80.20243749999999</v>
+        <v>80.0324375</v>
       </c>
       <c r="F32" t="n">
         <v>53.96880022441068</v>
@@ -1602,7 +1602,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L32" t="n">
-        <v>82.68657321221085</v>
+        <v>82.67297321221085</v>
       </c>
     </row>
     <row r="33">
@@ -1619,7 +1619,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E33" t="n">
-        <v>80.20243749999999</v>
+        <v>80.0324375</v>
       </c>
       <c r="F33" t="n">
         <v>53.96880022441068</v>
@@ -1640,7 +1640,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L33" t="n">
-        <v>82.68657321221085</v>
+        <v>82.67297321221085</v>
       </c>
     </row>
     <row r="34">
@@ -1657,7 +1657,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E34" t="n">
-        <v>81.43297749999999</v>
+        <v>81.26297749999999</v>
       </c>
       <c r="F34" t="n">
         <v>69.05834354704467</v>
@@ -1678,7 +1678,7 @@
         <v>96.46486224</v>
       </c>
       <c r="L34" t="n">
-        <v>83.19299560582473</v>
+        <v>83.17939560582474</v>
       </c>
     </row>
     <row r="35">
@@ -1695,7 +1695,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E35" t="n">
-        <v>81.43297749999999</v>
+        <v>81.26297749999999</v>
       </c>
       <c r="F35" t="n">
         <v>69.05834354704467</v>
@@ -1716,7 +1716,7 @@
         <v>96.46486224</v>
       </c>
       <c r="L35" t="n">
-        <v>83.19299560582473</v>
+        <v>83.17939560582474</v>
       </c>
     </row>
     <row r="36">
@@ -1733,7 +1733,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E36" t="n">
-        <v>92.01256000000001</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F36" t="n">
         <v>78.11831262296408</v>
@@ -1754,7 +1754,7 @@
         <v>96.93995196</v>
       </c>
       <c r="L36" t="n">
-        <v>78.51389274037489</v>
+        <v>78.50029274037489</v>
       </c>
     </row>
     <row r="37">
@@ -1771,7 +1771,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E37" t="n">
-        <v>92.01256000000001</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F37" t="n">
         <v>78.11831262296408</v>
@@ -1792,7 +1792,7 @@
         <v>96.93995196</v>
       </c>
       <c r="L37" t="n">
-        <v>78.51389274037489</v>
+        <v>78.50029274037489</v>
       </c>
     </row>
     <row r="38">
@@ -1809,7 +1809,7 @@
         <v>73.63017699999989</v>
       </c>
       <c r="E38" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F38" t="n">
         <v>78.11831262296408</v>
@@ -1830,7 +1830,7 @@
         <v>97.41724416</v>
       </c>
       <c r="L38" t="n">
-        <v>80.94950857137214</v>
+        <v>80.93590857137214</v>
       </c>
     </row>
     <row r="39">
@@ -1847,7 +1847,7 @@
         <v>73.63017699999989</v>
       </c>
       <c r="E39" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F39" t="n">
         <v>78.11831262296408</v>
@@ -1868,7 +1868,7 @@
         <v>97.41724416</v>
       </c>
       <c r="L39" t="n">
-        <v>80.94950857137214</v>
+        <v>80.93590857137214</v>
       </c>
     </row>
     <row r="40">
@@ -1885,7 +1885,7 @@
         <v>91.79679999999996</v>
       </c>
       <c r="E40" t="n">
-        <v>96.50599</v>
+        <v>96.33599</v>
       </c>
       <c r="F40" t="n">
         <v>69.05834354704467</v>
@@ -1906,7 +1906,7 @@
         <v>98.62011051</v>
       </c>
       <c r="L40" t="n">
-        <v>82.7737128651581</v>
+        <v>82.76011286515811</v>
       </c>
     </row>
     <row r="41">
@@ -1923,7 +1923,7 @@
         <v>91.79679999999996</v>
       </c>
       <c r="E41" t="n">
-        <v>96.50599</v>
+        <v>96.33599</v>
       </c>
       <c r="F41" t="n">
         <v>69.05834354704467</v>
@@ -1944,7 +1944,7 @@
         <v>98.62011051</v>
       </c>
       <c r="L41" t="n">
-        <v>82.7737128651581</v>
+        <v>82.76011286515811</v>
       </c>
     </row>
     <row r="42">
@@ -1961,7 +1961,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E42" t="n">
-        <v>94.47871000000001</v>
+        <v>94.30871</v>
       </c>
       <c r="F42" t="n">
         <v>78.11831262296408</v>
@@ -1982,7 +1982,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L42" t="n">
-        <v>79.90235042490617</v>
+        <v>79.88875042490618</v>
       </c>
     </row>
     <row r="43">
@@ -1999,7 +1999,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E43" t="n">
-        <v>94.47871000000001</v>
+        <v>94.30871</v>
       </c>
       <c r="F43" t="n">
         <v>78.11831262296408</v>
@@ -2020,7 +2020,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L43" t="n">
-        <v>79.90235042490617</v>
+        <v>79.88875042490618</v>
       </c>
     </row>
     <row r="44">
@@ -2037,7 +2037,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E44" t="n">
-        <v>92.98996</v>
+        <v>92.81995999999999</v>
       </c>
       <c r="F44" t="n">
         <v>78.11831262296408</v>
@@ -2058,7 +2058,7 @@
         <v>97.01934770999999</v>
       </c>
       <c r="L44" t="n">
-        <v>89.6078718111479</v>
+        <v>89.59427181114789</v>
       </c>
     </row>
     <row r="45">
@@ -2075,7 +2075,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E45" t="n">
-        <v>92.98996</v>
+        <v>92.81995999999999</v>
       </c>
       <c r="F45" t="n">
         <v>78.11831262296408</v>
@@ -2096,7 +2096,7 @@
         <v>97.01934770999999</v>
       </c>
       <c r="L45" t="n">
-        <v>89.6078718111479</v>
+        <v>89.59427181114789</v>
       </c>
     </row>
     <row r="46">
@@ -2113,7 +2113,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E46" t="n">
-        <v>88.45489750000002</v>
+        <v>88.2848975</v>
       </c>
       <c r="F46" t="n">
         <v>78.11831262296408</v>
@@ -2134,7 +2134,7 @@
         <v>93.27736274999999</v>
       </c>
       <c r="L46" t="n">
-        <v>90.78541162817501</v>
+        <v>90.77181162817502</v>
       </c>
     </row>
     <row r="47">
@@ -2151,7 +2151,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E47" t="n">
-        <v>88.45489750000002</v>
+        <v>88.2848975</v>
       </c>
       <c r="F47" t="n">
         <v>78.11831262296408</v>
@@ -2172,7 +2172,7 @@
         <v>93.27736274999999</v>
       </c>
       <c r="L47" t="n">
-        <v>90.78541162817501</v>
+        <v>90.77181162817502</v>
       </c>
     </row>
     <row r="48">
@@ -2189,7 +2189,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E48" t="n">
-        <v>93.2361975</v>
+        <v>93.0661975</v>
       </c>
       <c r="F48" t="n">
         <v>78.11831262296408</v>
@@ -2210,7 +2210,7 @@
         <v>94.50902898999999</v>
       </c>
       <c r="L48" t="n">
-        <v>91.84838186145134</v>
+        <v>91.83478186145133</v>
       </c>
     </row>
     <row r="49">
@@ -2227,7 +2227,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E49" t="n">
-        <v>93.2361975</v>
+        <v>93.0661975</v>
       </c>
       <c r="F49" t="n">
         <v>78.11831262296408</v>
@@ -2248,7 +2248,7 @@
         <v>94.50902898999999</v>
       </c>
       <c r="L49" t="n">
-        <v>91.84838186145134</v>
+        <v>91.83478186145133</v>
       </c>
     </row>
     <row r="50">
@@ -2265,7 +2265,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>92.49974999999999</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F50" t="n">
         <v>78.11831262296408</v>
@@ -2286,7 +2286,7 @@
         <v>94.12245084</v>
       </c>
       <c r="L50" t="n">
-        <v>91.08787274488606</v>
+        <v>91.07427274488606</v>
       </c>
     </row>
     <row r="51">
@@ -2303,7 +2303,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>92.49974999999999</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F51" t="n">
         <v>78.11831262296408</v>
@@ -2324,7 +2324,7 @@
         <v>94.12245084</v>
       </c>
       <c r="L51" t="n">
-        <v>91.08787274488606</v>
+        <v>91.07427274488606</v>
       </c>
     </row>
     <row r="52">
@@ -2341,7 +2341,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E52" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F52" t="n">
         <v>78.11831262296408</v>
@@ -2362,7 +2362,7 @@
         <v>94.431591</v>
       </c>
       <c r="L52" t="n">
-        <v>82.36038742525052</v>
+        <v>82.34678742525051</v>
       </c>
     </row>
     <row r="53">
@@ -2379,7 +2379,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E53" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F53" t="n">
         <v>78.11831262296408</v>
@@ -2400,7 +2400,7 @@
         <v>94.431591</v>
       </c>
       <c r="L53" t="n">
-        <v>82.36038742525052</v>
+        <v>82.34678742525051</v>
       </c>
     </row>
     <row r="54">
@@ -2417,7 +2417,7 @@
         <v>86.40000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F54" t="n">
         <v>78.11831262296408</v>
@@ -2438,7 +2438,7 @@
         <v>98.05705983999999</v>
       </c>
       <c r="L54" t="n">
-        <v>87.78578522361363</v>
+        <v>87.77218522361362</v>
       </c>
     </row>
     <row r="55">
@@ -2455,7 +2455,7 @@
         <v>86.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F55" t="n">
         <v>78.11831262296408</v>
@@ -2476,7 +2476,7 @@
         <v>98.05705983999999</v>
       </c>
       <c r="L55" t="n">
-        <v>87.78578522361363</v>
+        <v>87.77218522361362</v>
       </c>
     </row>
     <row r="56">
@@ -2493,7 +2493,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>95.48631</v>
+        <v>95.31631</v>
       </c>
       <c r="F56" t="n">
         <v>78.11831262296408</v>
@@ -2514,7 +2514,7 @@
         <v>97.576831</v>
       </c>
       <c r="L56" t="n">
-        <v>93.12541280727753</v>
+        <v>93.11181280727752</v>
       </c>
     </row>
     <row r="57">
@@ -2531,7 +2531,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>95.48631</v>
+        <v>95.31631</v>
       </c>
       <c r="F57" t="n">
         <v>78.11831262296408</v>
@@ -2552,7 +2552,7 @@
         <v>97.576831</v>
       </c>
       <c r="L57" t="n">
-        <v>93.12541280727753</v>
+        <v>93.11181280727752</v>
       </c>
     </row>
     <row r="58">
@@ -2569,7 +2569,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E58" t="n">
-        <v>89.38699750000001</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F58" t="n">
         <v>78.11831262296408</v>
@@ -2590,7 +2590,7 @@
         <v>99.18615899999999</v>
       </c>
       <c r="L58" t="n">
-        <v>92.39107634392624</v>
+        <v>92.37747634392625</v>
       </c>
     </row>
     <row r="59">
@@ -2607,7 +2607,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E59" t="n">
-        <v>89.38699750000001</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F59" t="n">
         <v>78.11831262296408</v>
@@ -2628,7 +2628,7 @@
         <v>99.18615899999999</v>
       </c>
       <c r="L59" t="n">
-        <v>92.39107634392624</v>
+        <v>92.37747634392625</v>
       </c>
     </row>
     <row r="60">
@@ -2645,7 +2645,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E60" t="n">
-        <v>92.25577750000001</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F60" t="n">
         <v>78.11831262296408</v>
@@ -2666,7 +2666,7 @@
         <v>97.33754251000001</v>
       </c>
       <c r="L60" t="n">
-        <v>91.6140911346435</v>
+        <v>91.60049113464351</v>
       </c>
     </row>
     <row r="61">
@@ -2683,7 +2683,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E61" t="n">
-        <v>92.25577750000001</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F61" t="n">
         <v>78.11831262296408</v>
@@ -2704,7 +2704,7 @@
         <v>97.33754251000001</v>
       </c>
       <c r="L61" t="n">
-        <v>91.6140911346435</v>
+        <v>91.60049113464351</v>
       </c>
     </row>
     <row r="62">
@@ -2721,7 +2721,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E62" t="n">
-        <v>94.2286975</v>
+        <v>94.05869749999999</v>
       </c>
       <c r="F62" t="n">
         <v>78.11831262296408</v>
@@ -2742,7 +2742,7 @@
         <v>96.07063659000001</v>
       </c>
       <c r="L62" t="n">
-        <v>90.9731622973421</v>
+        <v>90.9595622973421</v>
       </c>
     </row>
     <row r="63">
@@ -2759,7 +2759,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E63" t="n">
-        <v>94.2286975</v>
+        <v>94.05869749999999</v>
       </c>
       <c r="F63" t="n">
         <v>78.11831262296408</v>
@@ -2780,7 +2780,7 @@
         <v>96.07063659000001</v>
       </c>
       <c r="L63" t="n">
-        <v>90.9731622973421</v>
+        <v>90.9595622973421</v>
       </c>
     </row>
     <row r="64">
@@ -2797,7 +2797,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E64" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F64" t="n">
         <v>78.11831262296408</v>
@@ -2818,7 +2818,7 @@
         <v>97.49700698999999</v>
       </c>
       <c r="L64" t="n">
-        <v>92.3092704873962</v>
+        <v>92.29567048739619</v>
       </c>
     </row>
     <row r="65">
@@ -2835,7 +2835,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E65" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F65" t="n">
         <v>78.11831262296408</v>
@@ -2856,7 +2856,7 @@
         <v>97.49700698999999</v>
       </c>
       <c r="L65" t="n">
-        <v>92.3092704873962</v>
+        <v>92.29567048739619</v>
       </c>
     </row>
     <row r="66">
@@ -2873,7 +2873,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E66" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F66" t="n">
         <v>78.11831262296408</v>
@@ -2894,7 +2894,7 @@
         <v>97.73666256</v>
       </c>
       <c r="L66" t="n">
-        <v>83.93902006999497</v>
+        <v>83.92542006999497</v>
       </c>
     </row>
     <row r="67">
@@ -2911,7 +2911,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E67" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F67" t="n">
         <v>78.11831262296408</v>
@@ -2932,7 +2932,7 @@
         <v>97.73666256</v>
       </c>
       <c r="L67" t="n">
-        <v>83.93902006999497</v>
+        <v>83.92542006999497</v>
       </c>
     </row>
     <row r="68">
@@ -2949,7 +2949,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E68" t="n">
-        <v>92.01256000000001</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F68" t="n">
         <v>78.11831262296408</v>
@@ -2970,7 +2970,7 @@
         <v>96.70213179000001</v>
       </c>
       <c r="L68" t="n">
-        <v>83.88262423395784</v>
+        <v>83.86902423395784</v>
       </c>
     </row>
     <row r="69">
@@ -2987,7 +2987,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E69" t="n">
-        <v>92.01256000000001</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F69" t="n">
         <v>78.11831262296408</v>
@@ -3008,7 +3008,7 @@
         <v>96.70213179000001</v>
       </c>
       <c r="L69" t="n">
-        <v>83.88262423395784</v>
+        <v>83.86902423395784</v>
       </c>
     </row>
     <row r="70">
@@ -3025,7 +3025,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E70" t="n">
-        <v>90.09400000000001</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F70" t="n">
         <v>78.11831262296408</v>
@@ -3046,7 +3046,7 @@
         <v>97.576831</v>
       </c>
       <c r="L70" t="n">
-        <v>89.54503392124772</v>
+        <v>89.53143392124773</v>
       </c>
     </row>
     <row r="71">
@@ -3063,7 +3063,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E71" t="n">
-        <v>90.09400000000001</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F71" t="n">
         <v>78.11831262296408</v>
@@ -3084,7 +3084,7 @@
         <v>97.576831</v>
       </c>
       <c r="L71" t="n">
-        <v>89.54503392124772</v>
+        <v>89.53143392124773</v>
       </c>
     </row>
     <row r="72">
@@ -3101,7 +3101,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E72" t="n">
-        <v>88.45489750000002</v>
+        <v>88.2848975</v>
       </c>
       <c r="F72" t="n">
         <v>78.11831262296408</v>
@@ -3122,7 +3122,7 @@
         <v>99.75520531000001</v>
       </c>
       <c r="L72" t="n">
-        <v>81.2122859703892</v>
+        <v>81.19868597038921</v>
       </c>
     </row>
     <row r="73">
@@ -3139,7 +3139,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E73" t="n">
-        <v>88.45489750000002</v>
+        <v>88.2848975</v>
       </c>
       <c r="F73" t="n">
         <v>78.11831262296408</v>
@@ -3160,7 +3160,7 @@
         <v>99.75520531000001</v>
       </c>
       <c r="L73" t="n">
-        <v>81.2122859703892</v>
+        <v>81.19868597038921</v>
       </c>
     </row>
     <row r="74">
@@ -3177,7 +3177,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E74" t="n">
-        <v>92.25577750000001</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F74" t="n">
         <v>78.11831262296408</v>
@@ -3198,7 +3198,7 @@
         <v>92.59143324</v>
       </c>
       <c r="L74" t="n">
-        <v>87.3587184813691</v>
+        <v>87.3451184813691</v>
       </c>
     </row>
     <row r="75">
@@ -3215,7 +3215,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E75" t="n">
-        <v>92.25577750000001</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F75" t="n">
         <v>78.11831262296408</v>
@@ -3236,7 +3236,7 @@
         <v>92.59143324</v>
       </c>
       <c r="L75" t="n">
-        <v>87.3587184813691</v>
+        <v>87.3451184813691</v>
       </c>
     </row>
     <row r="76">
@@ -3253,7 +3253,7 @@
         <v>88.12000000000012</v>
       </c>
       <c r="E76" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F76" t="n">
         <v>78.11831262296408</v>
@@ -3274,7 +3274,7 @@
         <v>91.98587836</v>
       </c>
       <c r="L76" t="n">
-        <v>83.5654481782415</v>
+        <v>83.5518481782415</v>
       </c>
     </row>
     <row r="77">
@@ -3291,7 +3291,7 @@
         <v>88.12000000000012</v>
       </c>
       <c r="E77" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F77" t="n">
         <v>78.11831262296408</v>
@@ -3312,7 +3312,7 @@
         <v>91.98587836</v>
       </c>
       <c r="L77" t="n">
-        <v>83.5654481782415</v>
+        <v>83.5518481782415</v>
       </c>
     </row>
     <row r="78">
@@ -3329,7 +3329,7 @@
         <v>84.80000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>81.226</v>
+        <v>81.056</v>
       </c>
       <c r="F78" t="n">
         <v>78.11831262296408</v>
@@ -3350,7 +3350,7 @@
         <v>97.33754251000001</v>
       </c>
       <c r="L78" t="n">
-        <v>84.69798388418953</v>
+        <v>84.68438388418953</v>
       </c>
     </row>
     <row r="79">
@@ -3367,7 +3367,7 @@
         <v>84.80000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>81.226</v>
+        <v>81.056</v>
       </c>
       <c r="F79" t="n">
         <v>78.11831262296408</v>
@@ -3388,7 +3388,7 @@
         <v>97.33754251000001</v>
       </c>
       <c r="L79" t="n">
-        <v>84.69798388418953</v>
+        <v>84.68438388418953</v>
       </c>
     </row>
     <row r="80">
@@ -3405,7 +3405,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>88.68679</v>
+        <v>88.51679</v>
       </c>
       <c r="F80" t="n">
         <v>78.11831262296408</v>
@@ -3426,7 +3426,7 @@
         <v>97.09880464000001</v>
       </c>
       <c r="L80" t="n">
-        <v>90.62009558001223</v>
+        <v>90.60649558001224</v>
       </c>
     </row>
     <row r="81">
@@ -3443,7 +3443,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>88.68679</v>
+        <v>88.51679</v>
       </c>
       <c r="F81" t="n">
         <v>78.11831262296408</v>
@@ -3464,7 +3464,7 @@
         <v>97.09880464000001</v>
       </c>
       <c r="L81" t="n">
-        <v>90.62009558001223</v>
+        <v>90.60649558001224</v>
       </c>
     </row>
     <row r="82">
@@ -3481,7 +3481,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E82" t="n">
-        <v>83.54427750000001</v>
+        <v>83.37427750000001</v>
       </c>
       <c r="F82" t="n">
         <v>78.11831262296408</v>
@@ -3502,7 +3502,7 @@
         <v>96.46486224</v>
       </c>
       <c r="L82" t="n">
-        <v>90.64204148205577</v>
+        <v>90.62844148205576</v>
       </c>
     </row>
     <row r="83">
@@ -3519,7 +3519,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E83" t="n">
-        <v>83.54427750000001</v>
+        <v>83.37427750000001</v>
       </c>
       <c r="F83" t="n">
         <v>78.11831262296408</v>
@@ -3540,7 +3540,7 @@
         <v>96.46486224</v>
       </c>
       <c r="L83" t="n">
-        <v>90.64204148205577</v>
+        <v>90.62844148205576</v>
       </c>
     </row>
     <row r="84">
@@ -3557,7 +3557,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E84" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F84" t="n">
         <v>69.05834354704467</v>
@@ -3578,7 +3578,7 @@
         <v>96.70213179000001</v>
       </c>
       <c r="L84" t="n">
-        <v>87.46857585987181</v>
+        <v>87.45497585987179</v>
       </c>
     </row>
     <row r="85">
@@ -3595,7 +3595,7 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E85" t="n">
-        <v>93.48319000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F85" t="n">
         <v>69.05834354704467</v>
@@ -3616,7 +3616,7 @@
         <v>96.70213179000001</v>
       </c>
       <c r="L85" t="n">
-        <v>87.46857585987181</v>
+        <v>87.45497585987179</v>
       </c>
     </row>
     <row r="86">
@@ -3633,7 +3633,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E86" t="n">
-        <v>100.17</v>
+        <v>100</v>
       </c>
       <c r="F86" t="n">
         <v>69.05834354704467</v>
@@ -3654,7 +3654,7 @@
         <v>93.50710716</v>
       </c>
       <c r="L86" t="n">
-        <v>87.92780924671483</v>
+        <v>87.91420924671483</v>
       </c>
     </row>
     <row r="87">
@@ -3671,7 +3671,7 @@
         <v>91.54169999999976</v>
       </c>
       <c r="E87" t="n">
-        <v>70.18900000000001</v>
+        <v>70.01900000000001</v>
       </c>
       <c r="F87" t="n">
         <v>78.11831262296408</v>
@@ -3692,7 +3692,7 @@
         <v>97.89673884</v>
       </c>
       <c r="L87" t="n">
-        <v>83.73165959847934</v>
+        <v>83.71805959847934</v>
       </c>
     </row>
     <row r="88">
@@ -3709,7 +3709,7 @@
         <v>91.54169999999976</v>
       </c>
       <c r="E88" t="n">
-        <v>70.18900000000001</v>
+        <v>70.01900000000001</v>
       </c>
       <c r="F88" t="n">
         <v>78.11831262296408</v>
@@ -3730,7 +3730,7 @@
         <v>97.89673884</v>
       </c>
       <c r="L88" t="n">
-        <v>83.73165959847934</v>
+        <v>83.71805959847934</v>
       </c>
     </row>
     <row r="89">
@@ -3747,7 +3747,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E89" t="n">
-        <v>78.2119375</v>
+        <v>78.0419375</v>
       </c>
       <c r="F89" t="n">
         <v>78.11831262296408</v>
@@ -3768,7 +3768,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L89" t="n">
-        <v>87.84128126910063</v>
+        <v>87.82768126910062</v>
       </c>
     </row>
     <row r="90">
@@ -3785,7 +3785,7 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E90" t="n">
-        <v>78.2119375</v>
+        <v>78.0419375</v>
       </c>
       <c r="F90" t="n">
         <v>78.11831262296408</v>
@@ -3806,7 +3806,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L90" t="n">
-        <v>87.84128126910063</v>
+        <v>87.82768126910062</v>
       </c>
     </row>
     <row r="91">
@@ -3823,7 +3823,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E91" t="n">
-        <v>92.7444775</v>
+        <v>92.5744775</v>
       </c>
       <c r="F91" t="n">
         <v>78.11831262296408</v>
@@ -3844,7 +3844,7 @@
         <v>98.05705983999999</v>
       </c>
       <c r="L91" t="n">
-        <v>93.0435602718228</v>
+        <v>93.0299602718228</v>
       </c>
     </row>
     <row r="92">
@@ -3861,7 +3861,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E92" t="n">
-        <v>92.7444775</v>
+        <v>92.5744775</v>
       </c>
       <c r="F92" t="n">
         <v>78.11831262296408</v>
@@ -3882,7 +3882,7 @@
         <v>98.05705983999999</v>
       </c>
       <c r="L92" t="n">
-        <v>93.0435602718228</v>
+        <v>93.0299602718228</v>
       </c>
     </row>
     <row r="93">
@@ -3899,7 +3899,7 @@
         <v>69.8049640000001</v>
       </c>
       <c r="E93" t="n">
-        <v>90.56910999999999</v>
+        <v>90.39910999999999</v>
       </c>
       <c r="F93" t="n">
         <v>78.11831262296408</v>
@@ -3920,7 +3920,7 @@
         <v>96.46486224</v>
       </c>
       <c r="L93" t="n">
-        <v>89.24185488944777</v>
+        <v>89.22825488944777</v>
       </c>
     </row>
     <row r="94">
@@ -3937,7 +3937,7 @@
         <v>69.8049640000001</v>
       </c>
       <c r="E94" t="n">
-        <v>90.56910999999999</v>
+        <v>90.39910999999999</v>
       </c>
       <c r="F94" t="n">
         <v>78.11831262296408</v>
@@ -3958,7 +3958,7 @@
         <v>96.46486224</v>
       </c>
       <c r="L94" t="n">
-        <v>89.24185488944777</v>
+        <v>89.22825488944777</v>
       </c>
     </row>
     <row r="95">
@@ -3975,7 +3975,7 @@
         <v>80.03942499999994</v>
       </c>
       <c r="E95" t="n">
-        <v>92.867124375</v>
+        <v>92.697124375</v>
       </c>
       <c r="F95" t="n">
         <v>78.11831262296408</v>
@@ -3996,7 +3996,7 @@
         <v>99.75520531000001</v>
       </c>
       <c r="L95" t="n">
-        <v>85.80097741780537</v>
+        <v>85.78737741780537</v>
       </c>
     </row>
     <row r="96">
@@ -4013,7 +4013,7 @@
         <v>80.03942499999994</v>
       </c>
       <c r="E96" t="n">
-        <v>92.867124375</v>
+        <v>92.697124375</v>
       </c>
       <c r="F96" t="n">
         <v>78.11831262296408</v>
@@ -4034,7 +4034,7 @@
         <v>99.75520531000001</v>
       </c>
       <c r="L96" t="n">
-        <v>85.80097741780537</v>
+        <v>85.78737741780537</v>
       </c>
     </row>
     <row r="97">
@@ -4051,7 +4051,7 @@
         <v>89.33005000000014</v>
       </c>
       <c r="E97" t="n">
-        <v>93.112984375</v>
+        <v>92.94298437499999</v>
       </c>
       <c r="F97" t="n">
         <v>78.11831262296408</v>
@@ -4072,7 +4072,7 @@
         <v>98.94319971</v>
       </c>
       <c r="L97" t="n">
-        <v>90.07947836011407</v>
+        <v>90.06587836011407</v>
       </c>
     </row>
     <row r="98">
@@ -4089,7 +4089,7 @@
         <v>89.33005000000014</v>
       </c>
       <c r="E98" t="n">
-        <v>93.112984375</v>
+        <v>92.94298437499999</v>
       </c>
       <c r="F98" t="n">
         <v>78.11831262296408</v>
@@ -4110,7 +4110,7 @@
         <v>98.94319971</v>
       </c>
       <c r="L98" t="n">
-        <v>90.07947836011407</v>
+        <v>90.06587836011407</v>
       </c>
     </row>
     <row r="99">
@@ -4127,7 +4127,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E99" t="n">
-        <v>89.8575775</v>
+        <v>89.6875775</v>
       </c>
       <c r="F99" t="n">
         <v>78.11831262296408</v>
@@ -4148,7 +4148,7 @@
         <v>99.75520531000001</v>
       </c>
       <c r="L99" t="n">
-        <v>89.90591433503576</v>
+        <v>89.89231433503576</v>
       </c>
     </row>
     <row r="100">
@@ -4165,7 +4165,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E100" t="n">
-        <v>89.8575775</v>
+        <v>89.6875775</v>
       </c>
       <c r="F100" t="n">
         <v>78.11831262296408</v>
@@ -4186,7 +4186,7 @@
         <v>99.75520531000001</v>
       </c>
       <c r="L100" t="n">
-        <v>89.90591433503576</v>
+        <v>89.89231433503576</v>
       </c>
     </row>
     <row r="101">
@@ -4203,7 +4203,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E101" t="n">
-        <v>83.32975</v>
+        <v>83.15975</v>
       </c>
       <c r="F101" t="n">
         <v>78.11831262296408</v>
@@ -4224,7 +4224,7 @@
         <v>98.53949116</v>
       </c>
       <c r="L101" t="n">
-        <v>83.95041643012979</v>
+        <v>83.93681643012977</v>
       </c>
     </row>
     <row r="102">
@@ -4241,7 +4241,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E102" t="n">
-        <v>83.32975</v>
+        <v>83.15975</v>
       </c>
       <c r="F102" t="n">
         <v>78.11831262296408</v>
@@ -4262,7 +4262,7 @@
         <v>98.53949116</v>
       </c>
       <c r="L102" t="n">
-        <v>83.95041643012979</v>
+        <v>83.93681643012977</v>
       </c>
     </row>
     <row r="103">
@@ -4279,7 +4279,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E103" t="n">
-        <v>73.566</v>
+        <v>73.39600000000002</v>
       </c>
       <c r="F103" t="n">
         <v>78.11831262296408</v>
@@ -4300,7 +4300,7 @@
         <v>92.43967744</v>
       </c>
       <c r="L103" t="n">
-        <v>89.08468830137167</v>
+        <v>89.07108830137167</v>
       </c>
     </row>
     <row r="104">
@@ -4317,7 +4317,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E104" t="n">
-        <v>73.566</v>
+        <v>73.39600000000002</v>
       </c>
       <c r="F104" t="n">
         <v>78.11831262296408</v>
@@ -4338,7 +4338,7 @@
         <v>92.43967744</v>
       </c>
       <c r="L104" t="n">
-        <v>89.08468830137167</v>
+        <v>89.07108830137167</v>
       </c>
     </row>
     <row r="105">
@@ -4355,7 +4355,7 @@
         <v>82.85654799999986</v>
       </c>
       <c r="E105" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F105" t="n">
         <v>78.11831262296408</v>
@@ -4376,7 +4376,7 @@
         <v>93.66057599999999</v>
       </c>
       <c r="L105" t="n">
-        <v>88.27842104840472</v>
+        <v>88.26482104840473</v>
       </c>
     </row>
     <row r="106">
@@ -4393,7 +4393,7 @@
         <v>82.85654799999986</v>
       </c>
       <c r="E106" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F106" t="n">
         <v>78.11831262296408</v>
@@ -4414,7 +4414,7 @@
         <v>93.66057599999999</v>
       </c>
       <c r="L106" t="n">
-        <v>88.27842104840472</v>
+        <v>88.26482104840473</v>
       </c>
     </row>
     <row r="107">
@@ -4431,7 +4431,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E107" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F107" t="n">
         <v>78.11831262296408</v>
@@ -4452,7 +4452,7 @@
         <v>97.49700698999999</v>
       </c>
       <c r="L107" t="n">
-        <v>91.43380700101596</v>
+        <v>91.42020700101597</v>
       </c>
     </row>
     <row r="108">
@@ -4469,7 +4469,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E108" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F108" t="n">
         <v>78.11831262296408</v>
@@ -4490,7 +4490,7 @@
         <v>97.49700698999999</v>
       </c>
       <c r="L108" t="n">
-        <v>91.43380700101596</v>
+        <v>91.42020700101597</v>
       </c>
     </row>
     <row r="109">
@@ -4507,7 +4507,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F109" t="n">
         <v>78.11831262296408</v>
@@ -4528,7 +4528,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L109" t="n">
-        <v>89.53153804941897</v>
+        <v>89.51793804941897</v>
       </c>
     </row>
     <row r="110">
@@ -4545,7 +4545,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F110" t="n">
         <v>78.11831262296408</v>
@@ -4566,7 +4566,7 @@
         <v>96.30698844</v>
       </c>
       <c r="L110" t="n">
-        <v>89.53153804941897</v>
+        <v>89.51793804941897</v>
       </c>
     </row>
     <row r="111">
@@ -4583,7 +4583,7 @@
         <v>91.79679999999996</v>
       </c>
       <c r="E111" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F111" t="n">
         <v>78.01028370029826</v>
@@ -4604,7 +4604,7 @@
         <v>95.67794044</v>
       </c>
       <c r="L111" t="n">
-        <v>81.97331675650703</v>
+        <v>81.95971675650704</v>
       </c>
     </row>
     <row r="112">
@@ -4621,7 +4621,7 @@
         <v>91.79679999999996</v>
       </c>
       <c r="E112" t="n">
-        <v>94.98099999999999</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F112" t="n">
         <v>78.01028370029826</v>
@@ -4642,7 +4642,7 @@
         <v>95.67794044</v>
       </c>
       <c r="L112" t="n">
-        <v>81.97331675650703</v>
+        <v>81.95971675650704</v>
       </c>
     </row>
     <row r="113">
@@ -4659,7 +4659,7 @@
         <v>86.40000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>88.062412975</v>
+        <v>87.892412975</v>
       </c>
       <c r="F113" t="n">
         <v>78.11831262296408</v>
@@ -4680,7 +4680,7 @@
         <v>93.35388304</v>
       </c>
       <c r="L113" t="n">
-        <v>90.59303833784359</v>
+        <v>90.5794383378436</v>
       </c>
     </row>
     <row r="114">
@@ -4697,7 +4697,7 @@
         <v>84.80000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>77.245</v>
+        <v>77.075</v>
       </c>
       <c r="F114" t="n">
         <v>69.05834354704467</v>
@@ -4718,7 +4718,7 @@
         <v>92.59143324</v>
       </c>
       <c r="L114" t="n">
-        <v>86.69093364440461</v>
+        <v>86.67733364440461</v>
       </c>
     </row>
     <row r="115">
@@ -4735,7 +4735,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E115" t="n">
-        <v>92.49974999999999</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F115" t="n">
         <v>78.11831262296408</v>
@@ -4756,7 +4756,7 @@
         <v>97.97686875000001</v>
       </c>
       <c r="L115" t="n">
-        <v>90.92159691156151</v>
+        <v>90.90799691156151</v>
       </c>
     </row>
     <row r="116">
@@ -4773,7 +4773,7 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E116" t="n">
-        <v>92.49974999999999</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F116" t="n">
         <v>78.11831262296408</v>
@@ -4794,7 +4794,7 @@
         <v>92.66740290999999</v>
       </c>
       <c r="L116" t="n">
-        <v>88.93359042466415</v>
+        <v>88.91999042466415</v>
       </c>
     </row>
     <row r="117">
@@ -4811,7 +4811,7 @@
         <v>82.85654799999986</v>
       </c>
       <c r="E117" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F117" t="n">
         <v>61.04912732152012</v>
@@ -4832,7 +4832,7 @@
         <v>99.26726779000001</v>
       </c>
       <c r="L117" t="n">
-        <v>88.33077812076172</v>
+        <v>88.31717812076171</v>
       </c>
     </row>
     <row r="118">
@@ -4849,7 +4849,7 @@
         <v>92.51845000000014</v>
       </c>
       <c r="E118" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F118" t="n">
         <v>78.11831262296408</v>
@@ -4870,7 +4870,7 @@
         <v>96.22814331000001</v>
       </c>
       <c r="L118" t="n">
-        <v>91.56220474323666</v>
+        <v>91.54860474323667</v>
       </c>
     </row>
     <row r="119">
@@ -4887,7 +4887,7 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E119" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F119" t="n">
         <v>69.05834354704467</v>
@@ -4908,7 +4908,7 @@
         <v>95.75635731</v>
       </c>
       <c r="L119" t="n">
-        <v>79.20383646118515</v>
+        <v>79.19023646118515</v>
       </c>
     </row>
     <row r="120">
@@ -4925,7 +4925,7 @@
         <v>90.34620000000007</v>
       </c>
       <c r="E120" t="n">
-        <v>90.09400000000001</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F120" t="n">
         <v>69.05834354704467</v>
@@ -4946,7 +4946,7 @@
         <v>97.73666256</v>
       </c>
       <c r="L120" t="n">
-        <v>89.71582403149849</v>
+        <v>89.70222403149849</v>
       </c>
     </row>
     <row r="121">
@@ -4963,7 +4963,7 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E121" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F121" t="n">
         <v>69.05834354704467</v>
@@ -4984,7 +4984,7 @@
         <v>95.44305691000001</v>
       </c>
       <c r="L121" t="n">
-        <v>90.5764727898279</v>
+        <v>90.56287278982791</v>
       </c>
     </row>
     <row r="122">
@@ -5001,7 +5001,7 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F122" t="n">
         <v>78.11831262296408</v>
@@ -5022,7 +5022,7 @@
         <v>92.1369</v>
       </c>
       <c r="L122" t="n">
-        <v>89.83261957672217</v>
+        <v>89.81901957672217</v>
       </c>
     </row>
     <row r="123">
@@ -5039,7 +5039,7 @@
         <v>91.16845000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>77.245</v>
+        <v>77.075</v>
       </c>
       <c r="F123" t="n">
         <v>69.05834354704467</v>
@@ -5060,7 +5060,7 @@
         <v>93.66057599999999</v>
       </c>
       <c r="L123" t="n">
-        <v>86.85450678674596</v>
+        <v>86.84090678674595</v>
       </c>
     </row>
     <row r="124">
@@ -5077,7 +5077,7 @@
         <v>88.12000000000012</v>
       </c>
       <c r="E124" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F124" t="n">
         <v>78.11831262296408</v>
@@ -5098,7 +5098,7 @@
         <v>97.576831</v>
       </c>
       <c r="L124" t="n">
-        <v>85.4039024918805</v>
+        <v>85.39030249188049</v>
       </c>
     </row>
     <row r="125">
@@ -5115,7 +5115,7 @@
         <v>89.33005000000014</v>
       </c>
       <c r="E125" t="n">
-        <v>87.76375</v>
+        <v>87.59375</v>
       </c>
       <c r="F125" t="n">
         <v>78.11831262296408</v>
@@ -5136,7 +5136,7 @@
         <v>90.63769599999999</v>
       </c>
       <c r="L125" t="n">
-        <v>90.70239597370052</v>
+        <v>90.68879597370052</v>
       </c>
     </row>
   </sheetData>

--- a/Dados_ResItupararanga/IQA_Calculado.xlsx
+++ b/Dados_ResItupararanga/IQA_Calculado.xlsx
@@ -482,7 +482,7 @@
         <v>87.36487749999999</v>
       </c>
       <c r="F3" t="n">
-        <v>80.12220721002247</v>
+        <v>48.14661825589101</v>
       </c>
       <c r="G3" t="n">
         <v>93.53382094899955</v>
@@ -500,7 +500,7 @@
         <v>95.991975</v>
       </c>
       <c r="L3" t="n">
-        <v>91.90599782440749</v>
+        <v>88.70843892899435</v>
       </c>
     </row>
     <row r="4">
@@ -824,7 +824,7 @@
         <v>86.4569375</v>
       </c>
       <c r="F12" t="n">
-        <v>76.18085234335605</v>
+        <v>39.0713132937054</v>
       </c>
       <c r="G12" t="n">
         <v>94.02568865800247</v>
@@ -842,7 +842,7 @@
         <v>95.991975</v>
       </c>
       <c r="L12" t="n">
-        <v>81.63811811522487</v>
+        <v>77.9271642102598</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>86.4569375</v>
       </c>
       <c r="F13" t="n">
-        <v>76.18085234335605</v>
+        <v>39.0713132937054</v>
       </c>
       <c r="G13" t="n">
         <v>94.02568865800247</v>
@@ -880,7 +880,7 @@
         <v>95.991975</v>
       </c>
       <c r="L13" t="n">
-        <v>81.63811811522487</v>
+        <v>77.9271642102598</v>
       </c>
     </row>
     <row r="14">
@@ -4586,7 +4586,7 @@
         <v>94.81099999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>78.01028370029826</v>
+        <v>43.28373466485638</v>
       </c>
       <c r="G111" t="n">
         <v>35.97699551149338</v>
@@ -4604,7 +4604,7 @@
         <v>95.67794044</v>
       </c>
       <c r="L111" t="n">
-        <v>81.95971675650704</v>
+        <v>78.48706185296284</v>
       </c>
     </row>
     <row r="112">
@@ -4624,7 +4624,7 @@
         <v>94.81099999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>78.01028370029826</v>
+        <v>43.28373466485638</v>
       </c>
       <c r="G112" t="n">
         <v>35.97699551149338</v>
@@ -4642,7 +4642,7 @@
         <v>95.67794044</v>
       </c>
       <c r="L112" t="n">
-        <v>81.95971675650704</v>
+        <v>78.48706185296284</v>
       </c>
     </row>
     <row r="113">

--- a/Dados_ResItupararanga/IQA_Calculado.xlsx
+++ b/Dados_ResItupararanga/IQA_Calculado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,157 +426,177 @@
           <t>IQA</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40500</v>
+        <v>43797</v>
       </c>
       <c r="C2" t="n">
         <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>92.51845000000014</v>
+        <v>91.24001050000015</v>
       </c>
       <c r="E2" t="n">
-        <v>85.1176775</v>
+        <v>84.67729750000001</v>
       </c>
       <c r="F2" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G2" t="n">
-        <v>96.16100003629775</v>
+        <v>98.3615022499411</v>
       </c>
       <c r="H2" t="n">
-        <v>84.802768</v>
+        <v>85.33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>58.49030929299554</v>
       </c>
       <c r="J2" t="n">
-        <v>90.99817905523346</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K2" t="n">
-        <v>93.20090364000001</v>
+        <v>95.991975</v>
       </c>
       <c r="L2" t="n">
-        <v>91.67495917799039</v>
-      </c>
+        <v>86.48116084866552</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>40444</v>
+        <v>43727</v>
       </c>
       <c r="C3" t="n">
         <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>89.75791299999992</v>
+        <v>81.91999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>87.36487749999999</v>
+        <v>89.6875775</v>
       </c>
       <c r="F3" t="n">
-        <v>48.14661825589101</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G3" t="n">
-        <v>93.53382094899955</v>
+        <v>99.20670824665929</v>
       </c>
       <c r="H3" t="n">
-        <v>85.932528</v>
+        <v>85.79320000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J3" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K3" t="n">
         <v>95.991975</v>
       </c>
       <c r="L3" t="n">
-        <v>88.70843892899435</v>
-      </c>
+        <v>91.69107204976839</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>40386</v>
+        <v>43656</v>
       </c>
       <c r="C4" t="n">
         <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>92.23125000000005</v>
+        <v>71.14281456999987</v>
       </c>
       <c r="E4" t="n">
-        <v>82.5206975</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F4" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G4" t="n">
-        <v>99.26846170796914</v>
+        <v>88.77141663667484</v>
       </c>
       <c r="H4" t="n">
-        <v>86.0668</v>
+        <v>85.440048</v>
       </c>
       <c r="I4" t="n">
-        <v>63.03765820847627</v>
+        <v>71.1229783080739</v>
       </c>
       <c r="J4" t="n">
-        <v>76.88253884036153</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K4" t="n">
-        <v>95.59958474999999</v>
+        <v>95.208724</v>
       </c>
       <c r="L4" t="n">
-        <v>85.34608064295877</v>
-      </c>
+        <v>84.42950593066554</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>40318</v>
+        <v>43601</v>
       </c>
       <c r="C5" t="n">
         <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>85.41533699999979</v>
+        <v>78.53398825000011</v>
       </c>
       <c r="E5" t="n">
-        <v>93.56093750000001</v>
+        <v>91.21372789999999</v>
       </c>
       <c r="F5" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G5" t="n">
-        <v>78.40174741045789</v>
+        <v>73.96305396191026</v>
       </c>
       <c r="H5" t="n">
-        <v>85.634032</v>
+        <v>85.47</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J5" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K5" t="n">
-        <v>95.36488476</v>
+        <v>94.81939275000001</v>
       </c>
       <c r="L5" t="n">
-        <v>89.02114284014955</v>
+        <v>85.79965310291466</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -584,484 +604,508 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>40239</v>
+        <v>43531</v>
       </c>
       <c r="C6" t="n">
         <v>94</v>
       </c>
       <c r="D6" t="n">
-        <v>92.51845000000014</v>
+        <v>84.47999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>87.59375</v>
+        <v>89.6875775</v>
       </c>
       <c r="F6" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G6" t="n">
-        <v>80.98249045608139</v>
+        <v>96.98547641114884</v>
       </c>
       <c r="H6" t="n">
-        <v>85.541392</v>
+        <v>85.33</v>
       </c>
       <c r="I6" t="n">
-        <v>80.13202028617724</v>
+        <v>64.88305358424546</v>
       </c>
       <c r="J6" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K6" t="n">
-        <v>92.43967744</v>
+        <v>95.28677379</v>
       </c>
       <c r="L6" t="n">
-        <v>86.55473882883217</v>
-      </c>
+        <v>86.72524911875831</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>40190</v>
+        <v>43481</v>
       </c>
       <c r="C7" t="n">
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>86.40000000000001</v>
+        <v>80.16</v>
       </c>
       <c r="E7" t="n">
-        <v>94.05869749999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F7" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G7" t="n">
-        <v>97.01482597324441</v>
+        <v>95.23630047889563</v>
       </c>
       <c r="H7" t="n">
-        <v>85.634032</v>
+        <v>85.75667199999999</v>
       </c>
       <c r="I7" t="n">
-        <v>84.25499859425113</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J7" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K7" t="n">
-        <v>95.991975</v>
+        <v>95.67794044</v>
       </c>
       <c r="L7" t="n">
-        <v>90.04430536896096</v>
-      </c>
+        <v>90.60307083324857</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>40120</v>
+        <v>43433</v>
       </c>
       <c r="C8" t="n">
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>92.23125000000005</v>
+        <v>89.10355200000015</v>
       </c>
       <c r="E8" t="n">
-        <v>85.78390999999999</v>
+        <v>89.6875775</v>
       </c>
       <c r="F8" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G8" t="n">
-        <v>97.39304315433074</v>
+        <v>99.47739851562812</v>
       </c>
       <c r="H8" t="n">
-        <v>85.917552</v>
+        <v>85.33</v>
       </c>
       <c r="I8" t="n">
-        <v>53.31367279021942</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J8" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K8" t="n">
-        <v>95.991975</v>
+        <v>95.59958474999999</v>
       </c>
       <c r="L8" t="n">
-        <v>85.52785201914088</v>
-      </c>
+        <v>91.61682370290117</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>40120</v>
+        <v>43363</v>
       </c>
       <c r="C9" t="n">
         <v>94</v>
       </c>
       <c r="D9" t="n">
-        <v>92.23125000000005</v>
+        <v>91.62865450000004</v>
       </c>
       <c r="E9" t="n">
-        <v>85.78390999999999</v>
+        <v>90.16117750000001</v>
       </c>
       <c r="F9" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G9" t="n">
-        <v>97.39304315433074</v>
+        <v>96.64581983752701</v>
       </c>
       <c r="H9" t="n">
-        <v>85.917552</v>
+        <v>86.070048</v>
       </c>
       <c r="I9" t="n">
-        <v>53.31367279021942</v>
+        <v>81.05696816498528</v>
       </c>
       <c r="J9" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K9" t="n">
-        <v>95.991975</v>
+        <v>95.208724</v>
       </c>
       <c r="L9" t="n">
-        <v>85.52785201914088</v>
-      </c>
+        <v>90.04072008935357</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>40080</v>
+        <v>43312</v>
       </c>
       <c r="C10" t="n">
         <v>94</v>
       </c>
       <c r="D10" t="n">
-        <v>92.47180000000003</v>
+        <v>92.524632</v>
       </c>
       <c r="E10" t="n">
-        <v>89.92399999999999</v>
+        <v>91.35839</v>
       </c>
       <c r="F10" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G10" t="n">
-        <v>91.59873594911073</v>
+        <v>97.02787212992808</v>
       </c>
       <c r="H10" t="n">
-        <v>86.0668</v>
+        <v>85.33</v>
       </c>
       <c r="I10" t="n">
-        <v>60.43716719632174</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J10" t="n">
-        <v>88.47730199931041</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K10" t="n">
-        <v>91.01020274999999</v>
+        <v>96.30698844</v>
       </c>
       <c r="L10" t="n">
-        <v>84.97382192802455</v>
-      </c>
+        <v>89.47448192899623</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>40080</v>
+        <v>43237</v>
       </c>
       <c r="C11" t="n">
         <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>92.47180000000003</v>
+        <v>92.25800800000002</v>
       </c>
       <c r="E11" t="n">
-        <v>89.92399999999999</v>
+        <v>90.87724</v>
       </c>
       <c r="F11" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G11" t="n">
-        <v>91.59873594911073</v>
+        <v>94.10443413435367</v>
       </c>
       <c r="H11" t="n">
-        <v>86.0668</v>
+        <v>85.717968</v>
       </c>
       <c r="I11" t="n">
-        <v>60.43716719632174</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J11" t="n">
-        <v>88.47730199931041</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K11" t="n">
-        <v>91.01020274999999</v>
+        <v>95.36488476</v>
       </c>
       <c r="L11" t="n">
-        <v>84.97382192802455</v>
-      </c>
+        <v>91.82403461882198</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>40022</v>
+        <v>43174</v>
       </c>
       <c r="C12" t="n">
         <v>94</v>
       </c>
       <c r="D12" t="n">
-        <v>91.16845000000001</v>
+        <v>92.26403049999999</v>
       </c>
       <c r="E12" t="n">
-        <v>86.4569375</v>
+        <v>88.51679</v>
       </c>
       <c r="F12" t="n">
-        <v>39.0713132937054</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G12" t="n">
-        <v>94.02568865800247</v>
+        <v>99.64315159944019</v>
       </c>
       <c r="H12" t="n">
-        <v>86.017072</v>
+        <v>85.33</v>
       </c>
       <c r="I12" t="n">
-        <v>34.65677095670333</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J12" t="n">
-        <v>90.99817905523346</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K12" t="n">
-        <v>95.991975</v>
+        <v>96.46486224</v>
       </c>
       <c r="L12" t="n">
-        <v>77.9271642102598</v>
-      </c>
+        <v>92.92312080374114</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>40022</v>
+        <v>43116</v>
       </c>
       <c r="C13" t="n">
         <v>94</v>
       </c>
       <c r="D13" t="n">
-        <v>91.16845000000001</v>
+        <v>92.52251050000018</v>
       </c>
       <c r="E13" t="n">
-        <v>86.4569375</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F13" t="n">
-        <v>39.0713132937054</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G13" t="n">
-        <v>94.02568865800247</v>
+        <v>95.01395929048017</v>
       </c>
       <c r="H13" t="n">
-        <v>86.017072</v>
+        <v>86.0668</v>
       </c>
       <c r="I13" t="n">
-        <v>34.65677095670333</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J13" t="n">
-        <v>90.99817905523346</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K13" t="n">
-        <v>95.991975</v>
+        <v>96.38589474999999</v>
       </c>
       <c r="L13" t="n">
-        <v>77.9271642102598</v>
-      </c>
+        <v>92.27423956221797</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>39954</v>
+        <v>43067</v>
       </c>
       <c r="C14" t="n">
         <v>94</v>
       </c>
       <c r="D14" t="n">
-        <v>90.34620000000007</v>
+        <v>87.84</v>
       </c>
       <c r="E14" t="n">
-        <v>90.63779749999999</v>
+        <v>84.89711</v>
       </c>
       <c r="F14" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G14" t="n">
-        <v>95.16479376880372</v>
+        <v>97.42275472326745</v>
       </c>
       <c r="H14" t="n">
-        <v>85.541392</v>
+        <v>85.440048</v>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>49.32015861133877</v>
       </c>
       <c r="J14" t="n">
-        <v>88.47730199931041</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K14" t="n">
-        <v>94.89713664</v>
+        <v>96.14935935999999</v>
       </c>
       <c r="L14" t="n">
-        <v>91.6631692269241</v>
-      </c>
+        <v>84.58017718288248</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>39954</v>
+        <v>42999</v>
       </c>
       <c r="C15" t="n">
         <v>94</v>
       </c>
       <c r="D15" t="n">
-        <v>90.34620000000007</v>
+        <v>61.41232484737092</v>
       </c>
       <c r="E15" t="n">
-        <v>90.63779749999999</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F15" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G15" t="n">
-        <v>95.16479376880372</v>
+        <v>97.48212950569312</v>
       </c>
       <c r="H15" t="n">
-        <v>85.541392</v>
+        <v>85.49180800000001</v>
       </c>
       <c r="I15" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J15" t="n">
-        <v>88.47730199931041</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K15" t="n">
-        <v>94.89713664</v>
+        <v>96.70213179000001</v>
       </c>
       <c r="L15" t="n">
-        <v>91.6631692269241</v>
-      </c>
+        <v>88.8896183566342</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>39875</v>
+        <v>42929</v>
       </c>
       <c r="C16" t="n">
         <v>94</v>
       </c>
       <c r="D16" t="n">
-        <v>89.75791299999992</v>
+        <v>90.5024278799998</v>
       </c>
       <c r="E16" t="n">
-        <v>90.63779749999999</v>
+        <v>91.60009749999999</v>
       </c>
       <c r="F16" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G16" t="n">
-        <v>99.43520820217901</v>
+        <v>98.26571225039314</v>
       </c>
       <c r="H16" t="n">
-        <v>85.9432</v>
+        <v>85.9992</v>
       </c>
       <c r="I16" t="n">
-        <v>57.70790534526126</v>
+        <v>86.86797971382276</v>
       </c>
       <c r="J16" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K16" t="n">
-        <v>94.74171003999999</v>
+        <v>95.991975</v>
       </c>
       <c r="L16" t="n">
-        <v>86.50269086453133</v>
-      </c>
+        <v>91.24037719746642</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>39875</v>
+        <v>42880</v>
       </c>
       <c r="C17" t="n">
         <v>94</v>
       </c>
       <c r="D17" t="n">
-        <v>89.75791299999992</v>
+        <v>92.23125000000005</v>
       </c>
       <c r="E17" t="n">
-        <v>90.63779749999999</v>
+        <v>92.5744775</v>
       </c>
       <c r="F17" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G17" t="n">
-        <v>99.43520820217901</v>
+        <v>94.48387487781478</v>
       </c>
       <c r="H17" t="n">
-        <v>85.9432</v>
+        <v>85.677088</v>
       </c>
       <c r="I17" t="n">
-        <v>57.70790534526126</v>
+        <v>73.73595942764553</v>
       </c>
       <c r="J17" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K17" t="n">
-        <v>94.74171003999999</v>
+        <v>95.991975</v>
       </c>
       <c r="L17" t="n">
-        <v>86.50269086453133</v>
-      </c>
+        <v>88.88730189560155</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>39826</v>
+        <v>42808</v>
       </c>
       <c r="C18" t="n">
         <v>94</v>
       </c>
       <c r="D18" t="n">
-        <v>92.47180000000003</v>
+        <v>90.06171450000011</v>
       </c>
       <c r="E18" t="n">
-        <v>87.59375</v>
+        <v>85.1176775</v>
       </c>
       <c r="F18" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G18" t="n">
-        <v>95.35766215546165</v>
+        <v>97.22447950000503</v>
       </c>
       <c r="H18" t="n">
-        <v>85.677088</v>
+        <v>86.08</v>
       </c>
       <c r="I18" t="n">
-        <v>100</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J18" t="n">
         <v>93.59088042075324</v>
@@ -1070,59 +1114,63 @@
         <v>95.991975</v>
       </c>
       <c r="L18" t="n">
-        <v>92.33920241080023</v>
-      </c>
+        <v>88.74159673790932</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>39826</v>
+        <v>42747</v>
       </c>
       <c r="C19" t="n">
         <v>94</v>
       </c>
       <c r="D19" t="n">
-        <v>92.47180000000003</v>
+        <v>68.11337153998458</v>
       </c>
       <c r="E19" t="n">
-        <v>87.59375</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F19" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G19" t="n">
-        <v>95.35766215546165</v>
+        <v>99.05896028136451</v>
       </c>
       <c r="H19" t="n">
-        <v>85.677088</v>
+        <v>86.070048</v>
       </c>
       <c r="I19" t="n">
-        <v>100</v>
+        <v>81.05696816498528</v>
       </c>
       <c r="J19" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K19" t="n">
-        <v>95.991975</v>
+        <v>96.46486224</v>
       </c>
       <c r="L19" t="n">
-        <v>92.33920241080023</v>
-      </c>
+        <v>87.7357596336041</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>39755</v>
+        <v>42698</v>
       </c>
       <c r="C20" t="n">
         <v>94</v>
       </c>
       <c r="D20" t="n">
-        <v>87.71579199999996</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>89.21699750000001</v>
@@ -1131,127 +1179,133 @@
         <v>78.11831262296408</v>
       </c>
       <c r="G20" t="n">
-        <v>93.75035911836416</v>
+        <v>99.45062932856206</v>
       </c>
       <c r="H20" t="n">
-        <v>85.79320000000001</v>
+        <v>85.859728</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>63.53544905400912</v>
       </c>
       <c r="J20" t="n">
-        <v>93.59088042075324</v>
+        <v>81.32599363290117</v>
       </c>
       <c r="K20" t="n">
-        <v>95.991975</v>
+        <v>98.37843600000001</v>
       </c>
       <c r="L20" t="n">
-        <v>91.63438869449364</v>
-      </c>
+        <v>85.74373660954345</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>39755</v>
+        <v>42635</v>
       </c>
       <c r="C21" t="n">
         <v>94</v>
       </c>
       <c r="D21" t="n">
-        <v>87.71579199999996</v>
+        <v>88.37752200000011</v>
       </c>
       <c r="E21" t="n">
-        <v>89.21699750000001</v>
+        <v>90.39910999999999</v>
       </c>
       <c r="F21" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G21" t="n">
-        <v>93.75035911836416</v>
+        <v>97.03657888581112</v>
       </c>
       <c r="H21" t="n">
-        <v>85.79320000000001</v>
+        <v>86.007088</v>
       </c>
       <c r="I21" t="n">
-        <v>100</v>
+        <v>86.86797971382276</v>
       </c>
       <c r="J21" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K21" t="n">
-        <v>95.991975</v>
+        <v>99.18615899999999</v>
       </c>
       <c r="L21" t="n">
-        <v>91.63438869449364</v>
-      </c>
+        <v>90.73374905203306</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>39715</v>
+        <v>42570</v>
       </c>
       <c r="C22" t="n">
         <v>94</v>
       </c>
       <c r="D22" t="n">
-        <v>85.41533699999979</v>
+        <v>92.37119999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>87.59375</v>
+        <v>86.68279</v>
       </c>
       <c r="F22" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G22" t="n">
-        <v>92.76610604441682</v>
+        <v>78.55126390308257</v>
       </c>
       <c r="H22" t="n">
-        <v>85.859728</v>
+        <v>86.078608</v>
       </c>
       <c r="I22" t="n">
-        <v>9.0298423974534</v>
+        <v>81.05696816498528</v>
       </c>
       <c r="J22" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K22" t="n">
-        <v>95.991975</v>
+        <v>96.54389091</v>
       </c>
       <c r="L22" t="n">
-        <v>77.42094987154059</v>
-      </c>
+        <v>86.64302432364357</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>39715</v>
+        <v>42507</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
       </c>
       <c r="D23" t="n">
-        <v>85.41533699999979</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E23" t="n">
-        <v>87.59375</v>
+        <v>94.05869749999999</v>
       </c>
       <c r="F23" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G23" t="n">
-        <v>92.76610604441682</v>
+        <v>75.72773514160309</v>
       </c>
       <c r="H23" t="n">
-        <v>85.859728</v>
+        <v>85.75667199999999</v>
       </c>
       <c r="I23" t="n">
-        <v>9.0298423974534</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J23" t="n">
         <v>93.59088042075324</v>
@@ -1260,205 +1314,217 @@
         <v>95.991975</v>
       </c>
       <c r="L23" t="n">
-        <v>77.42094987154059</v>
-      </c>
+        <v>86.07137381698098</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>39653</v>
+        <v>42444</v>
       </c>
       <c r="C24" t="n">
         <v>94</v>
       </c>
       <c r="D24" t="n">
-        <v>85.41533699999979</v>
+        <v>91.79679999999996</v>
       </c>
       <c r="E24" t="n">
-        <v>87.59375</v>
+        <v>88.7494375</v>
       </c>
       <c r="F24" t="n">
-        <v>78.11831262296408</v>
+        <v>61.04912732152012</v>
       </c>
       <c r="G24" t="n">
-        <v>88.60267537528225</v>
+        <v>97.29684761013908</v>
       </c>
       <c r="H24" t="n">
-        <v>85.677088</v>
+        <v>83.392912</v>
       </c>
       <c r="I24" t="n">
-        <v>100</v>
+        <v>73.73595942764553</v>
       </c>
       <c r="J24" t="n">
-        <v>88.47730199931041</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K24" t="n">
-        <v>95.13073539</v>
+        <v>98.21762556</v>
       </c>
       <c r="L24" t="n">
-        <v>89.7465972950254</v>
-      </c>
+        <v>87.07362529809781</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>39653</v>
+        <v>42395</v>
       </c>
       <c r="C25" t="n">
         <v>94</v>
       </c>
       <c r="D25" t="n">
-        <v>85.41533699999979</v>
+        <v>89.33005000000014</v>
       </c>
       <c r="E25" t="n">
-        <v>87.59375</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F25" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G25" t="n">
-        <v>88.60267537528225</v>
+        <v>99.15927190848379</v>
       </c>
       <c r="H25" t="n">
-        <v>85.677088</v>
+        <v>84.09683200000001</v>
       </c>
       <c r="I25" t="n">
-        <v>100</v>
+        <v>86.86797971382276</v>
       </c>
       <c r="J25" t="n">
-        <v>88.47730199931041</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K25" t="n">
-        <v>95.13073539</v>
+        <v>96.93995196</v>
       </c>
       <c r="L25" t="n">
-        <v>89.7465972950254</v>
-      </c>
+        <v>91.06011744974188</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>39597</v>
+        <v>42256</v>
       </c>
       <c r="C26" t="n">
         <v>94</v>
       </c>
       <c r="D26" t="n">
-        <v>80.03942499999994</v>
+        <v>92.51936250000017</v>
       </c>
       <c r="E26" t="n">
-        <v>85.339</v>
+        <v>91.11743749999999</v>
       </c>
       <c r="F26" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G26" t="n">
-        <v>90.56643216547988</v>
+        <v>82.88667931283356</v>
       </c>
       <c r="H26" t="n">
-        <v>85.677088</v>
+        <v>86.017072</v>
       </c>
       <c r="I26" t="n">
-        <v>84.25499859425113</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J26" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K26" t="n">
-        <v>95.991975</v>
+        <v>95.52129024</v>
       </c>
       <c r="L26" t="n">
-        <v>87.49067810164098</v>
-      </c>
+        <v>89.74789337061159</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>39597</v>
+        <v>42208</v>
       </c>
       <c r="C27" t="n">
         <v>94</v>
       </c>
       <c r="D27" t="n">
-        <v>80.03942499999994</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E27" t="n">
-        <v>85.339</v>
+        <v>86.0074975</v>
       </c>
       <c r="F27" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G27" t="n">
-        <v>90.56643216547988</v>
+        <v>98.85172158206396</v>
       </c>
       <c r="H27" t="n">
-        <v>85.677088</v>
+        <v>84.365872</v>
       </c>
       <c r="I27" t="n">
-        <v>84.25499859425113</v>
+        <v>64.88305358424546</v>
       </c>
       <c r="J27" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K27" t="n">
-        <v>95.991975</v>
+        <v>93.81428956000001</v>
       </c>
       <c r="L27" t="n">
-        <v>87.49067810164098</v>
-      </c>
+        <v>86.96101252695944</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>39511</v>
+        <v>42138</v>
       </c>
       <c r="C28" t="n">
         <v>94</v>
       </c>
       <c r="D28" t="n">
-        <v>92.03005000000013</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E28" t="n">
-        <v>91.60009749999999</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F28" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G28" t="n">
-        <v>94.48233979075248</v>
+        <v>94.19648056916377</v>
       </c>
       <c r="H28" t="n">
-        <v>85.88972799999999</v>
+        <v>85.12123200000001</v>
       </c>
       <c r="I28" t="n">
         <v>76.93398985691138</v>
       </c>
       <c r="J28" t="n">
-        <v>93.59088042075324</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K28" t="n">
-        <v>95.59958474999999</v>
+        <v>94.35421419000001</v>
       </c>
       <c r="L28" t="n">
-        <v>88.97576606233639</v>
-      </c>
+        <v>88.09215741652201</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>39511</v>
+        <v>42075</v>
       </c>
       <c r="C29" t="n">
         <v>94</v>
@@ -1467,682 +1533,718 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E29" t="n">
-        <v>91.60009749999999</v>
+        <v>88.51679</v>
       </c>
       <c r="F29" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G29" t="n">
-        <v>94.48233979075248</v>
+        <v>87.81749708990944</v>
       </c>
       <c r="H29" t="n">
-        <v>85.88972799999999</v>
+        <v>83.17220800000001</v>
       </c>
       <c r="I29" t="n">
-        <v>76.93398985691138</v>
+        <v>68.91373425026366</v>
       </c>
       <c r="J29" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K29" t="n">
-        <v>95.59958474999999</v>
+        <v>94.35421419000001</v>
       </c>
       <c r="L29" t="n">
-        <v>88.97576606233639</v>
-      </c>
+        <v>86.05110120619591</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>39457</v>
+        <v>42019</v>
       </c>
       <c r="C30" t="n">
         <v>94</v>
       </c>
       <c r="D30" t="n">
-        <v>92.51845000000014</v>
+        <v>63.56935695928578</v>
       </c>
       <c r="E30" t="n">
-        <v>91.35839</v>
+        <v>86.23184000000001</v>
       </c>
       <c r="F30" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G30" t="n">
-        <v>94.06143944473313</v>
+        <v>96.19309068365828</v>
       </c>
       <c r="H30" t="n">
-        <v>84.947632</v>
+        <v>85.8772</v>
       </c>
       <c r="I30" t="n">
-        <v>74.32100873733975</v>
+        <v>81.05696816498528</v>
       </c>
       <c r="J30" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K30" t="n">
-        <v>95.991975</v>
+        <v>93.89123810999999</v>
       </c>
       <c r="L30" t="n">
-        <v>88.51540858057737</v>
-      </c>
+        <v>85.86845979145572</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>39457</v>
+        <v>41968</v>
       </c>
       <c r="C31" t="n">
         <v>94</v>
       </c>
       <c r="D31" t="n">
-        <v>92.51845000000014</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>91.35839</v>
+        <v>87.13676</v>
       </c>
       <c r="F31" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G31" t="n">
-        <v>94.06143944473313</v>
+        <v>98.68651411852768</v>
       </c>
       <c r="H31" t="n">
-        <v>84.947632</v>
+        <v>84.00280000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>74.32100873733975</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J31" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K31" t="n">
-        <v>95.991975</v>
+        <v>93.27736274999999</v>
       </c>
       <c r="L31" t="n">
-        <v>88.51540858057737</v>
-      </c>
+        <v>90.99555307857958</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>39391</v>
+        <v>41892</v>
       </c>
       <c r="C32" t="n">
         <v>94</v>
       </c>
       <c r="D32" t="n">
-        <v>92.03005000000013</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>80.0324375</v>
+        <v>91.11743749999999</v>
       </c>
       <c r="F32" t="n">
-        <v>53.96880022441068</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G32" t="n">
-        <v>91.21030578968339</v>
+        <v>99.42962467984866</v>
       </c>
       <c r="H32" t="n">
-        <v>85.859728</v>
+        <v>84.84520000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>60.43716719632174</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J32" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K32" t="n">
-        <v>96.30698844</v>
+        <v>91.98587836</v>
       </c>
       <c r="L32" t="n">
-        <v>82.67297321221085</v>
-      </c>
+        <v>91.37857963500416</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>39391</v>
+        <v>41836</v>
       </c>
       <c r="C33" t="n">
         <v>94</v>
       </c>
       <c r="D33" t="n">
-        <v>92.03005000000013</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E33" t="n">
-        <v>80.0324375</v>
+        <v>89.6875775</v>
       </c>
       <c r="F33" t="n">
-        <v>53.96880022441068</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G33" t="n">
-        <v>91.21030578968339</v>
+        <v>94.87725705394217</v>
       </c>
       <c r="H33" t="n">
-        <v>85.859728</v>
+        <v>86.007088</v>
       </c>
       <c r="I33" t="n">
-        <v>60.43716719632174</v>
+        <v>47.21115919911277</v>
       </c>
       <c r="J33" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K33" t="n">
-        <v>96.30698844</v>
+        <v>93.35388304</v>
       </c>
       <c r="L33" t="n">
-        <v>82.67297321221085</v>
-      </c>
+        <v>84.27490242740883</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>39351</v>
+        <v>41780</v>
       </c>
       <c r="C34" t="n">
         <v>94</v>
       </c>
       <c r="D34" t="n">
-        <v>85.41533699999979</v>
+        <v>89.33005000000014</v>
       </c>
       <c r="E34" t="n">
-        <v>81.26297749999999</v>
+        <v>88.98284</v>
       </c>
       <c r="F34" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G34" t="n">
-        <v>88.60267537528225</v>
+        <v>97.4802290626199</v>
       </c>
       <c r="H34" t="n">
-        <v>85.859728</v>
+        <v>85.917552</v>
       </c>
       <c r="I34" t="n">
-        <v>61.23916860831322</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J34" t="n">
-        <v>93.59088042075324</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K34" t="n">
-        <v>96.46486224</v>
+        <v>94.431591</v>
       </c>
       <c r="L34" t="n">
-        <v>83.17939560582474</v>
-      </c>
+        <v>92.08430734848173</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>39351</v>
+        <v>41711</v>
       </c>
       <c r="C35" t="n">
         <v>94</v>
       </c>
       <c r="D35" t="n">
-        <v>85.41533699999979</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E35" t="n">
-        <v>81.26297749999999</v>
+        <v>87.36487749999999</v>
       </c>
       <c r="F35" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G35" t="n">
-        <v>88.60267537528225</v>
+        <v>98.972965609124</v>
       </c>
       <c r="H35" t="n">
-        <v>85.859728</v>
+        <v>85.33</v>
       </c>
       <c r="I35" t="n">
-        <v>61.23916860831322</v>
+        <v>73.73595942764553</v>
       </c>
       <c r="J35" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K35" t="n">
-        <v>96.46486224</v>
+        <v>95.13073539</v>
       </c>
       <c r="L35" t="n">
-        <v>83.17939560582474</v>
-      </c>
+        <v>88.62832497451768</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>39289</v>
+        <v>41653</v>
       </c>
       <c r="C36" t="n">
         <v>94</v>
       </c>
       <c r="D36" t="n">
-        <v>85.41533699999979</v>
+        <v>91.79679999999996</v>
       </c>
       <c r="E36" t="n">
-        <v>91.84256000000001</v>
+        <v>89.45191</v>
       </c>
       <c r="F36" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G36" t="n">
-        <v>91.46305841842509</v>
+        <v>97.876698149676</v>
       </c>
       <c r="H36" t="n">
-        <v>85.45057408</v>
+        <v>85.33</v>
       </c>
       <c r="I36" t="n">
-        <v>31.60923249325507</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J36" t="n">
-        <v>68.7107031055796</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K36" t="n">
-        <v>96.93995196</v>
+        <v>95.991975</v>
       </c>
       <c r="L36" t="n">
-        <v>78.50029274037489</v>
-      </c>
+        <v>92.59427693328124</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>39289</v>
+        <v>41604</v>
       </c>
       <c r="C37" t="n">
         <v>94</v>
       </c>
       <c r="D37" t="n">
-        <v>85.41533699999979</v>
+        <v>92.37119999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>91.84256000000001</v>
+        <v>90.39910999999999</v>
       </c>
       <c r="F37" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G37" t="n">
-        <v>91.46305841842509</v>
+        <v>96.98609097257885</v>
       </c>
       <c r="H37" t="n">
-        <v>85.45057408</v>
+        <v>85.634032</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60923249325507</v>
+        <v>73.73595942764553</v>
       </c>
       <c r="J37" t="n">
-        <v>68.7107031055796</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K37" t="n">
-        <v>96.93995196</v>
+        <v>95.991975</v>
       </c>
       <c r="L37" t="n">
-        <v>78.50029274037489</v>
-      </c>
+        <v>89.23346770298539</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>39224</v>
+        <v>41529</v>
       </c>
       <c r="C38" t="n">
         <v>94</v>
       </c>
       <c r="D38" t="n">
-        <v>73.63017699999989</v>
+        <v>80</v>
       </c>
       <c r="E38" t="n">
-        <v>94.81099999999999</v>
+        <v>88.51679</v>
       </c>
       <c r="F38" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G38" t="n">
-        <v>82.26047997094525</v>
+        <v>97.55937623336814</v>
       </c>
       <c r="H38" t="n">
-        <v>76.6194</v>
+        <v>85.966672</v>
       </c>
       <c r="I38" t="n">
-        <v>62.10279129816617</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J38" t="n">
-        <v>81.32599363290117</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K38" t="n">
-        <v>97.41724416</v>
+        <v>95.59958474999999</v>
       </c>
       <c r="L38" t="n">
-        <v>80.93590857137214</v>
-      </c>
+        <v>90.23707338619093</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>39224</v>
+        <v>41478</v>
       </c>
       <c r="C39" t="n">
         <v>94</v>
       </c>
       <c r="D39" t="n">
-        <v>73.63017699999989</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E39" t="n">
-        <v>94.81099999999999</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F39" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G39" t="n">
-        <v>82.26047997094525</v>
+        <v>87.12858638102787</v>
       </c>
       <c r="H39" t="n">
-        <v>76.6194</v>
+        <v>84.69412800000001</v>
       </c>
       <c r="I39" t="n">
-        <v>62.10279129816617</v>
+        <v>62.32940584219643</v>
       </c>
       <c r="J39" t="n">
-        <v>81.32599363290117</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41724416</v>
+        <v>95.991975</v>
       </c>
       <c r="L39" t="n">
-        <v>80.93590857137214</v>
-      </c>
+        <v>85.33064346892395</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>39147</v>
+        <v>41410</v>
       </c>
       <c r="C40" t="n">
         <v>94</v>
       </c>
       <c r="D40" t="n">
-        <v>91.79679999999996</v>
+        <v>91.16845000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>96.33599</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F40" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G40" t="n">
-        <v>86.83849498013387</v>
+        <v>95.638038842388</v>
       </c>
       <c r="H40" t="n">
-        <v>85.61620032</v>
+        <v>85.440048</v>
       </c>
       <c r="I40" t="n">
-        <v>45.99229363437035</v>
+        <v>86.86797971382276</v>
       </c>
       <c r="J40" t="n">
-        <v>93.59088042075324</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K40" t="n">
-        <v>98.62011051</v>
+        <v>94.12245084</v>
       </c>
       <c r="L40" t="n">
-        <v>82.76011286515811</v>
-      </c>
+        <v>90.76223414777954</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>39147</v>
+        <v>41347</v>
       </c>
       <c r="C41" t="n">
         <v>94</v>
       </c>
       <c r="D41" t="n">
-        <v>91.79679999999996</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E41" t="n">
-        <v>96.33599</v>
+        <v>84.67729750000001</v>
       </c>
       <c r="F41" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G41" t="n">
-        <v>86.83849498013387</v>
+        <v>93.0327929995173</v>
       </c>
       <c r="H41" t="n">
-        <v>85.61620032</v>
+        <v>85.440048</v>
       </c>
       <c r="I41" t="n">
-        <v>45.99229363437035</v>
+        <v>60.24534556297696</v>
       </c>
       <c r="J41" t="n">
-        <v>93.59088042075324</v>
+        <v>96.79981557023896</v>
       </c>
       <c r="K41" t="n">
-        <v>98.62011051</v>
+        <v>95.991975</v>
       </c>
       <c r="L41" t="n">
-        <v>82.76011286515811</v>
-      </c>
+        <v>85.99638060368481</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>39093</v>
+        <v>41290</v>
       </c>
       <c r="C42" t="n">
         <v>94</v>
       </c>
       <c r="D42" t="n">
-        <v>87.71579199999996</v>
+        <v>92.37119999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>94.30871</v>
+        <v>89.6875775</v>
       </c>
       <c r="F42" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G42" t="n">
-        <v>42.30292539998675</v>
+        <v>70.5131840364855</v>
       </c>
       <c r="H42" t="n">
-        <v>86.061808</v>
+        <v>85.717968</v>
       </c>
       <c r="I42" t="n">
-        <v>76.93398985691138</v>
+        <v>73.73595942764553</v>
       </c>
       <c r="J42" t="n">
-        <v>93.59088042075324</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K42" t="n">
-        <v>96.30698844</v>
+        <v>94.27689855999999</v>
       </c>
       <c r="L42" t="n">
-        <v>79.88875042490618</v>
-      </c>
+        <v>83.60536125225757</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>39093</v>
+        <v>41219</v>
       </c>
       <c r="C43" t="n">
         <v>94</v>
       </c>
       <c r="D43" t="n">
-        <v>87.71579199999996</v>
+        <v>83.19999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>94.30871</v>
+        <v>82.09843749999999</v>
       </c>
       <c r="F43" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G43" t="n">
-        <v>42.30292539998675</v>
+        <v>92.26659319579404</v>
       </c>
       <c r="H43" t="n">
-        <v>86.061808</v>
+        <v>86.081712</v>
       </c>
       <c r="I43" t="n">
-        <v>76.93398985691138</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J43" t="n">
-        <v>93.59088042075324</v>
+        <v>95.18182580611281</v>
       </c>
       <c r="K43" t="n">
-        <v>96.30698844</v>
+        <v>95.59958474999999</v>
       </c>
       <c r="L43" t="n">
-        <v>79.88875042490618</v>
-      </c>
+        <v>89.9340005568028</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>39034</v>
+        <v>41177</v>
       </c>
       <c r="C44" t="n">
         <v>94</v>
       </c>
       <c r="D44" t="n">
-        <v>92.51845000000014</v>
+        <v>92.23125000000005</v>
       </c>
       <c r="E44" t="n">
-        <v>92.81995999999999</v>
+        <v>85.339</v>
       </c>
       <c r="F44" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G44" t="n">
-        <v>77.57181539957728</v>
+        <v>89.06804567132664</v>
       </c>
       <c r="H44" t="n">
-        <v>85.82085567999999</v>
+        <v>85.79320000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J44" t="n">
-        <v>90.99817905523346</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K44" t="n">
-        <v>97.01934770999999</v>
+        <v>95.991975</v>
       </c>
       <c r="L44" t="n">
-        <v>89.59427181114789</v>
-      </c>
+        <v>90.93843216323582</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>39034</v>
+        <v>41114</v>
       </c>
       <c r="C45" t="n">
         <v>94</v>
       </c>
       <c r="D45" t="n">
-        <v>92.51845000000014</v>
+        <v>92.23125000000005</v>
       </c>
       <c r="E45" t="n">
-        <v>92.81995999999999</v>
+        <v>89.6875775</v>
       </c>
       <c r="F45" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G45" t="n">
-        <v>77.57181539957728</v>
+        <v>97.78073202398973</v>
       </c>
       <c r="H45" t="n">
-        <v>85.82085567999999</v>
+        <v>86.017072</v>
       </c>
       <c r="I45" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J45" t="n">
-        <v>90.99817905523346</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K45" t="n">
-        <v>97.01934770999999</v>
+        <v>93.12450571000001</v>
       </c>
       <c r="L45" t="n">
-        <v>89.59427181114789</v>
-      </c>
+        <v>92.49863787418853</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>38987</v>
+        <v>41039</v>
       </c>
       <c r="C46" t="n">
         <v>94</v>
       </c>
       <c r="D46" t="n">
-        <v>92.03005000000013</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E46" t="n">
-        <v>88.2848975</v>
+        <v>91.35839</v>
       </c>
       <c r="F46" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G46" t="n">
-        <v>92.11499456792673</v>
+        <v>89.71198729441522</v>
       </c>
       <c r="H46" t="n">
-        <v>82.73208767999999</v>
+        <v>85.541392</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J46" t="n">
-        <v>88.47730199931041</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K46" t="n">
-        <v>93.27736274999999</v>
+        <v>94.97494171000001</v>
       </c>
       <c r="L46" t="n">
-        <v>90.77181162817502</v>
-      </c>
+        <v>91.43647147016088</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>38987</v>
+        <v>40990</v>
       </c>
       <c r="C47" t="n">
         <v>94</v>
@@ -2151,393 +2253,413 @@
         <v>92.03005000000013</v>
       </c>
       <c r="E47" t="n">
-        <v>88.2848975</v>
+        <v>86.0074975</v>
       </c>
       <c r="F47" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G47" t="n">
-        <v>92.11499456792673</v>
+        <v>87.69902192980143</v>
       </c>
       <c r="H47" t="n">
-        <v>82.73208767999999</v>
+        <v>85.33</v>
       </c>
       <c r="I47" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J47" t="n">
-        <v>88.47730199931041</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K47" t="n">
-        <v>93.27736274999999</v>
+        <v>94.58652816</v>
       </c>
       <c r="L47" t="n">
-        <v>90.77181162817502</v>
-      </c>
+        <v>90.55743324317652</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>38916</v>
+        <v>40913</v>
       </c>
       <c r="C48" t="n">
         <v>94</v>
       </c>
       <c r="D48" t="n">
-        <v>92.47180000000003</v>
+        <v>56.65960627217707</v>
       </c>
       <c r="E48" t="n">
-        <v>93.0661975</v>
+        <v>80.4395975</v>
       </c>
       <c r="F48" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G48" t="n">
-        <v>93.6688755448464</v>
+        <v>94.92680032277578</v>
       </c>
       <c r="H48" t="n">
-        <v>85.73371072</v>
+        <v>86.061808</v>
       </c>
       <c r="I48" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J48" t="n">
-        <v>88.47730199931041</v>
+        <v>97.07214201203746</v>
       </c>
       <c r="K48" t="n">
-        <v>94.50902898999999</v>
+        <v>92.59143324</v>
       </c>
       <c r="L48" t="n">
-        <v>91.83478186145133</v>
-      </c>
+        <v>86.95530547064342</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>38916</v>
+        <v>40808</v>
       </c>
       <c r="C49" t="n">
         <v>94</v>
       </c>
       <c r="D49" t="n">
-        <v>92.47180000000003</v>
+        <v>80</v>
       </c>
       <c r="E49" t="n">
-        <v>93.0661975</v>
+        <v>85.78390999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>78.11831262296408</v>
+        <v>26.28038935379281</v>
       </c>
       <c r="G49" t="n">
-        <v>93.6688755448464</v>
+        <v>97.61421112007631</v>
       </c>
       <c r="H49" t="n">
-        <v>85.73371072</v>
+        <v>85.27171199999999</v>
       </c>
       <c r="I49" t="n">
-        <v>100</v>
+        <v>81.05696816498528</v>
       </c>
       <c r="J49" t="n">
-        <v>88.47730199931041</v>
+        <v>95.18182580611281</v>
       </c>
       <c r="K49" t="n">
-        <v>94.50902898999999</v>
+        <v>99.88569395639999</v>
       </c>
       <c r="L49" t="n">
-        <v>91.83478186145133</v>
-      </c>
+        <v>83.57220178679133</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>38839</v>
+        <v>40749</v>
       </c>
       <c r="C50" t="n">
         <v>94</v>
       </c>
       <c r="D50" t="n">
-        <v>92.37119999999999</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E50" t="n">
-        <v>92.32974999999999</v>
+        <v>82.30919</v>
       </c>
       <c r="F50" t="n">
-        <v>78.11831262296408</v>
+        <v>26.28038935379281</v>
       </c>
       <c r="G50" t="n">
-        <v>86.76160111831948</v>
+        <v>93.04148442204875</v>
       </c>
       <c r="H50" t="n">
-        <v>85.88390208</v>
+        <v>85.966672</v>
       </c>
       <c r="I50" t="n">
-        <v>100</v>
+        <v>96.80196957073414</v>
       </c>
       <c r="J50" t="n">
-        <v>93.59088042075324</v>
+        <v>96.52825311375454</v>
       </c>
       <c r="K50" t="n">
-        <v>94.12245084</v>
+        <v>99.9265037779</v>
       </c>
       <c r="L50" t="n">
-        <v>91.07427274488606</v>
-      </c>
+        <v>86.57514537190316</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>38839</v>
+        <v>40681</v>
       </c>
       <c r="C51" t="n">
         <v>94</v>
       </c>
       <c r="D51" t="n">
-        <v>92.37119999999999</v>
+        <v>91.54169999999976</v>
       </c>
       <c r="E51" t="n">
-        <v>92.32974999999999</v>
+        <v>85.78390999999999</v>
       </c>
       <c r="F51" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G51" t="n">
-        <v>86.76160111831948</v>
+        <v>91.23525916640193</v>
       </c>
       <c r="H51" t="n">
-        <v>85.88390208</v>
+        <v>85.541392</v>
       </c>
       <c r="I51" t="n">
-        <v>100</v>
+        <v>61.23916860831322</v>
       </c>
       <c r="J51" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K51" t="n">
-        <v>94.12245084</v>
+        <v>99.83674236</v>
       </c>
       <c r="L51" t="n">
-        <v>91.07427274488606</v>
-      </c>
+        <v>85.94149104990703</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>38783</v>
+        <v>40603</v>
       </c>
       <c r="C52" t="n">
         <v>94</v>
       </c>
       <c r="D52" t="n">
-        <v>92.51845000000014</v>
+        <v>91.54169999999976</v>
       </c>
       <c r="E52" t="n">
-        <v>93.31318999999999</v>
+        <v>87.36487749999999</v>
       </c>
       <c r="F52" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G52" t="n">
-        <v>79.97200071184162</v>
+        <v>92.95789534167305</v>
       </c>
       <c r="H52" t="n">
-        <v>85.61620032</v>
+        <v>85.79320000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>50.53449207211783</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J52" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K52" t="n">
-        <v>94.431591</v>
+        <v>99.83674236</v>
       </c>
       <c r="L52" t="n">
-        <v>82.34678742525051</v>
-      </c>
+        <v>88.73518442699283</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>38783</v>
+        <v>40554</v>
       </c>
       <c r="C53" t="n">
         <v>94</v>
       </c>
       <c r="D53" t="n">
-        <v>92.51845000000014</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E53" t="n">
-        <v>93.31318999999999</v>
+        <v>82.94597750000001</v>
       </c>
       <c r="F53" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G53" t="n">
-        <v>79.97200071184162</v>
+        <v>96.57915855140175</v>
       </c>
       <c r="H53" t="n">
-        <v>85.61620032</v>
+        <v>86.081712</v>
       </c>
       <c r="I53" t="n">
-        <v>50.53449207211783</v>
+        <v>55.65219583056269</v>
       </c>
       <c r="J53" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K53" t="n">
-        <v>94.431591</v>
+        <v>99.83674236</v>
       </c>
       <c r="L53" t="n">
-        <v>82.34678742525051</v>
-      </c>
+        <v>85.68463902869445</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>38729</v>
+        <v>40500</v>
       </c>
       <c r="C54" t="n">
         <v>94</v>
       </c>
       <c r="D54" t="n">
-        <v>86.40000000000001</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E54" t="n">
-        <v>93.31318999999999</v>
+        <v>85.1176775</v>
       </c>
       <c r="F54" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G54" t="n">
-        <v>98.03614904024643</v>
+        <v>96.16100003629775</v>
       </c>
       <c r="H54" t="n">
-        <v>85.57949248</v>
+        <v>84.802768</v>
       </c>
       <c r="I54" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J54" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K54" t="n">
-        <v>98.05705983999999</v>
+        <v>93.20090364000001</v>
       </c>
       <c r="L54" t="n">
-        <v>87.77218522361362</v>
-      </c>
+        <v>91.67495917799039</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>38729</v>
+        <v>40444</v>
       </c>
       <c r="C55" t="n">
         <v>94</v>
       </c>
       <c r="D55" t="n">
-        <v>86.40000000000001</v>
+        <v>89.75791299999992</v>
       </c>
       <c r="E55" t="n">
-        <v>93.31318999999999</v>
+        <v>87.36487749999999</v>
       </c>
       <c r="F55" t="n">
-        <v>78.11831262296408</v>
+        <v>48.14661825589101</v>
       </c>
       <c r="G55" t="n">
-        <v>98.03614904024643</v>
+        <v>93.53382094899955</v>
       </c>
       <c r="H55" t="n">
-        <v>85.57949248</v>
+        <v>85.932528</v>
       </c>
       <c r="I55" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J55" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K55" t="n">
-        <v>98.05705983999999</v>
+        <v>95.991975</v>
       </c>
       <c r="L55" t="n">
-        <v>87.77218522361362</v>
-      </c>
+        <v>88.70843892899435</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>38672</v>
+        <v>40386</v>
       </c>
       <c r="C56" t="n">
         <v>94</v>
       </c>
       <c r="D56" t="n">
-        <v>92.37119999999999</v>
+        <v>92.23125000000005</v>
       </c>
       <c r="E56" t="n">
-        <v>95.31631</v>
+        <v>82.5206975</v>
       </c>
       <c r="F56" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G56" t="n">
-        <v>95.42728848768118</v>
+        <v>99.26846170796914</v>
       </c>
       <c r="H56" t="n">
-        <v>85.634032</v>
+        <v>86.0668</v>
       </c>
       <c r="I56" t="n">
-        <v>100</v>
+        <v>63.03765820847627</v>
       </c>
       <c r="J56" t="n">
-        <v>93.59088042075324</v>
+        <v>76.88253884036153</v>
       </c>
       <c r="K56" t="n">
-        <v>97.576831</v>
+        <v>95.59958474999999</v>
       </c>
       <c r="L56" t="n">
-        <v>93.11181280727752</v>
-      </c>
+        <v>85.34608064295877</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>38672</v>
+        <v>40318</v>
       </c>
       <c r="C57" t="n">
         <v>94</v>
       </c>
       <c r="D57" t="n">
-        <v>92.37119999999999</v>
+        <v>85.41533699999979</v>
       </c>
       <c r="E57" t="n">
-        <v>95.31631</v>
+        <v>93.56093750000001</v>
       </c>
       <c r="F57" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G57" t="n">
-        <v>95.42728848768118</v>
+        <v>78.40174741045789</v>
       </c>
       <c r="H57" t="n">
         <v>85.634032</v>
@@ -2549,302 +2671,318 @@
         <v>93.59088042075324</v>
       </c>
       <c r="K57" t="n">
-        <v>97.576831</v>
+        <v>95.36488476</v>
       </c>
       <c r="L57" t="n">
-        <v>93.11181280727752</v>
-      </c>
+        <v>89.02114284014955</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>38623</v>
+        <v>40239</v>
       </c>
       <c r="C58" t="n">
         <v>94</v>
       </c>
       <c r="D58" t="n">
-        <v>92.47180000000003</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E58" t="n">
-        <v>89.21699750000001</v>
+        <v>87.59375</v>
       </c>
       <c r="F58" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G58" t="n">
-        <v>94.3422112806264</v>
+        <v>80.98249045608139</v>
       </c>
       <c r="H58" t="n">
-        <v>85.93824447999999</v>
+        <v>85.541392</v>
       </c>
       <c r="I58" t="n">
-        <v>100</v>
+        <v>80.13202028617724</v>
       </c>
       <c r="J58" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K58" t="n">
-        <v>99.18615899999999</v>
+        <v>92.43967744</v>
       </c>
       <c r="L58" t="n">
-        <v>92.37747634392625</v>
-      </c>
+        <v>86.55473882883217</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>38623</v>
+        <v>40190</v>
       </c>
       <c r="C59" t="n">
         <v>94</v>
       </c>
       <c r="D59" t="n">
-        <v>92.47180000000003</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>89.21699750000001</v>
+        <v>94.05869749999999</v>
       </c>
       <c r="F59" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G59" t="n">
-        <v>94.3422112806264</v>
+        <v>97.01482597324441</v>
       </c>
       <c r="H59" t="n">
-        <v>85.93824447999999</v>
+        <v>85.634032</v>
       </c>
       <c r="I59" t="n">
-        <v>100</v>
+        <v>84.25499859425113</v>
       </c>
       <c r="J59" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K59" t="n">
-        <v>99.18615899999999</v>
+        <v>95.991975</v>
       </c>
       <c r="L59" t="n">
-        <v>92.37747634392625</v>
-      </c>
+        <v>90.04430536896096</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>38552</v>
+        <v>40120</v>
       </c>
       <c r="C60" t="n">
         <v>94</v>
       </c>
       <c r="D60" t="n">
-        <v>89.75791299999992</v>
+        <v>92.23125000000005</v>
       </c>
       <c r="E60" t="n">
-        <v>92.08577750000001</v>
+        <v>85.78390999999999</v>
       </c>
       <c r="F60" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G60" t="n">
-        <v>89.93663281924577</v>
+        <v>97.39304315433074</v>
       </c>
       <c r="H60" t="n">
-        <v>85.859728</v>
+        <v>85.917552</v>
       </c>
       <c r="I60" t="n">
-        <v>100</v>
+        <v>53.31367279021942</v>
       </c>
       <c r="J60" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K60" t="n">
-        <v>97.33754251000001</v>
+        <v>95.991975</v>
       </c>
       <c r="L60" t="n">
-        <v>91.60049113464351</v>
-      </c>
+        <v>85.52785201914088</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>38552</v>
+        <v>40080</v>
       </c>
       <c r="C61" t="n">
         <v>94</v>
       </c>
       <c r="D61" t="n">
-        <v>89.75791299999992</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E61" t="n">
-        <v>92.08577750000001</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F61" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G61" t="n">
-        <v>89.93663281924577</v>
+        <v>91.59873594911073</v>
       </c>
       <c r="H61" t="n">
-        <v>85.859728</v>
+        <v>86.0668</v>
       </c>
       <c r="I61" t="n">
-        <v>100</v>
+        <v>60.43716719632174</v>
       </c>
       <c r="J61" t="n">
-        <v>93.59088042075324</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K61" t="n">
-        <v>97.33754251000001</v>
+        <v>91.01020274999999</v>
       </c>
       <c r="L61" t="n">
-        <v>91.60049113464351</v>
-      </c>
+        <v>84.97382192802455</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>38475</v>
+        <v>40022</v>
       </c>
       <c r="C62" t="n">
         <v>94</v>
       </c>
       <c r="D62" t="n">
-        <v>92.03005000000013</v>
+        <v>91.16845000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>94.05869749999999</v>
+        <v>86.4569375</v>
       </c>
       <c r="F62" t="n">
-        <v>78.11831262296408</v>
+        <v>39.0713132937054</v>
       </c>
       <c r="G62" t="n">
-        <v>84.34724557864911</v>
+        <v>94.02568865800247</v>
       </c>
       <c r="H62" t="n">
-        <v>85.92807232</v>
+        <v>86.017072</v>
       </c>
       <c r="I62" t="n">
-        <v>100</v>
+        <v>34.65677095670333</v>
       </c>
       <c r="J62" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K62" t="n">
-        <v>96.07063659000001</v>
+        <v>95.991975</v>
       </c>
       <c r="L62" t="n">
-        <v>90.9595622973421</v>
-      </c>
+        <v>77.9271642102598</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>38475</v>
+        <v>39954</v>
       </c>
       <c r="C63" t="n">
         <v>94</v>
       </c>
       <c r="D63" t="n">
-        <v>92.03005000000013</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E63" t="n">
-        <v>94.05869749999999</v>
+        <v>90.63779749999999</v>
       </c>
       <c r="F63" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G63" t="n">
-        <v>84.34724557864911</v>
+        <v>95.16479376880372</v>
       </c>
       <c r="H63" t="n">
-        <v>85.92807232</v>
+        <v>85.541392</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>93.59088042075324</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K63" t="n">
-        <v>96.07063659000001</v>
+        <v>94.89713664</v>
       </c>
       <c r="L63" t="n">
-        <v>90.9595622973421</v>
-      </c>
+        <v>91.6631692269241</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>38419</v>
+        <v>39875</v>
       </c>
       <c r="C64" t="n">
         <v>94</v>
       </c>
       <c r="D64" t="n">
-        <v>92.03005000000013</v>
+        <v>89.75791299999992</v>
       </c>
       <c r="E64" t="n">
-        <v>93.31318999999999</v>
+        <v>90.63779749999999</v>
       </c>
       <c r="F64" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G64" t="n">
-        <v>91.77864544484964</v>
+        <v>99.43520820217901</v>
       </c>
       <c r="H64" t="n">
-        <v>85.80024448</v>
+        <v>85.9432</v>
       </c>
       <c r="I64" t="n">
-        <v>100</v>
+        <v>57.70790534526126</v>
       </c>
       <c r="J64" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K64" t="n">
-        <v>97.49700698999999</v>
+        <v>94.74171003999999</v>
       </c>
       <c r="L64" t="n">
-        <v>92.29567048739619</v>
-      </c>
+        <v>86.50269086453133</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>38419</v>
+        <v>39826</v>
       </c>
       <c r="C65" t="n">
         <v>94</v>
       </c>
       <c r="D65" t="n">
-        <v>92.03005000000013</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E65" t="n">
-        <v>93.31318999999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F65" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G65" t="n">
-        <v>91.77864544484964</v>
+        <v>95.35766215546165</v>
       </c>
       <c r="H65" t="n">
-        <v>85.80024448</v>
+        <v>85.677088</v>
       </c>
       <c r="I65" t="n">
         <v>100</v>
@@ -2853,18 +2991,20 @@
         <v>93.59088042075324</v>
       </c>
       <c r="K65" t="n">
-        <v>97.49700698999999</v>
+        <v>95.991975</v>
       </c>
       <c r="L65" t="n">
-        <v>92.29567048739619</v>
-      </c>
+        <v>92.33920241080023</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>38365</v>
+        <v>39755</v>
       </c>
       <c r="C66" t="n">
         <v>94</v>
@@ -2873,74 +3013,78 @@
         <v>87.71579199999996</v>
       </c>
       <c r="E66" t="n">
-        <v>93.31318999999999</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F66" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G66" t="n">
-        <v>91.77864544484964</v>
+        <v>93.75035911836416</v>
       </c>
       <c r="H66" t="n">
-        <v>85.91216128000001</v>
+        <v>85.79320000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>47.43027761065866</v>
+        <v>100</v>
       </c>
       <c r="J66" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K66" t="n">
-        <v>97.73666256</v>
+        <v>95.991975</v>
       </c>
       <c r="L66" t="n">
-        <v>83.92542006999497</v>
-      </c>
+        <v>91.63438869449364</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>38365</v>
+        <v>39715</v>
       </c>
       <c r="C67" t="n">
         <v>94</v>
       </c>
       <c r="D67" t="n">
-        <v>87.71579199999996</v>
+        <v>85.41533699999979</v>
       </c>
       <c r="E67" t="n">
-        <v>93.31318999999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F67" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G67" t="n">
-        <v>91.77864544484964</v>
+        <v>92.76610604441682</v>
       </c>
       <c r="H67" t="n">
-        <v>85.91216128000001</v>
+        <v>85.859728</v>
       </c>
       <c r="I67" t="n">
-        <v>47.43027761065866</v>
+        <v>9.0298423974534</v>
       </c>
       <c r="J67" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K67" t="n">
-        <v>97.73666256</v>
+        <v>95.991975</v>
       </c>
       <c r="L67" t="n">
-        <v>83.92542006999497</v>
-      </c>
+        <v>77.42094987154059</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>38308</v>
+        <v>39653</v>
       </c>
       <c r="C68" t="n">
         <v>94</v>
@@ -2949,492 +3093,518 @@
         <v>85.41533699999979</v>
       </c>
       <c r="E68" t="n">
-        <v>91.84256000000001</v>
+        <v>87.59375</v>
       </c>
       <c r="F68" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G68" t="n">
-        <v>89.05261443242338</v>
+        <v>88.60267537528225</v>
       </c>
       <c r="H68" t="n">
-        <v>85.27171199999999</v>
+        <v>85.677088</v>
       </c>
       <c r="I68" t="n">
-        <v>55.52823489084087</v>
+        <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>90.99817905523346</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K68" t="n">
-        <v>96.70213179000001</v>
+        <v>95.13073539</v>
       </c>
       <c r="L68" t="n">
-        <v>83.86902423395784</v>
-      </c>
+        <v>89.7465972950254</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>38308</v>
+        <v>39597</v>
       </c>
       <c r="C69" t="n">
         <v>94</v>
       </c>
       <c r="D69" t="n">
-        <v>85.41533699999979</v>
+        <v>80.03942499999994</v>
       </c>
       <c r="E69" t="n">
-        <v>91.84256000000001</v>
+        <v>85.339</v>
       </c>
       <c r="F69" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G69" t="n">
-        <v>89.05261443242338</v>
+        <v>90.56643216547988</v>
       </c>
       <c r="H69" t="n">
-        <v>85.27171199999999</v>
+        <v>85.677088</v>
       </c>
       <c r="I69" t="n">
-        <v>55.52823489084087</v>
+        <v>84.25499859425113</v>
       </c>
       <c r="J69" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K69" t="n">
-        <v>96.70213179000001</v>
+        <v>95.991975</v>
       </c>
       <c r="L69" t="n">
-        <v>83.86902423395784</v>
-      </c>
+        <v>87.49067810164098</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>38245</v>
+        <v>39511</v>
       </c>
       <c r="C70" t="n">
         <v>94</v>
       </c>
       <c r="D70" t="n">
-        <v>89.75791299999992</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E70" t="n">
-        <v>89.92399999999999</v>
+        <v>91.60009749999999</v>
       </c>
       <c r="F70" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G70" t="n">
-        <v>92.58340239846073</v>
+        <v>94.48233979075248</v>
       </c>
       <c r="H70" t="n">
-        <v>85.75667199999999</v>
+        <v>85.88972799999999</v>
       </c>
       <c r="I70" t="n">
-        <v>84.25499859425113</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J70" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K70" t="n">
-        <v>97.576831</v>
+        <v>95.59958474999999</v>
       </c>
       <c r="L70" t="n">
-        <v>89.53143392124773</v>
-      </c>
+        <v>88.97576606233639</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>38245</v>
+        <v>39457</v>
       </c>
       <c r="C71" t="n">
         <v>94</v>
       </c>
       <c r="D71" t="n">
-        <v>89.75791299999992</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E71" t="n">
-        <v>89.92399999999999</v>
+        <v>91.35839</v>
       </c>
       <c r="F71" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G71" t="n">
-        <v>92.58340239846073</v>
+        <v>94.06143944473313</v>
       </c>
       <c r="H71" t="n">
-        <v>85.75667199999999</v>
+        <v>84.947632</v>
       </c>
       <c r="I71" t="n">
-        <v>84.25499859425113</v>
+        <v>74.32100873733975</v>
       </c>
       <c r="J71" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K71" t="n">
-        <v>97.576831</v>
+        <v>95.991975</v>
       </c>
       <c r="L71" t="n">
-        <v>89.53143392124773</v>
-      </c>
+        <v>88.51540858057737</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>38188</v>
+        <v>39391</v>
       </c>
       <c r="C72" t="n">
         <v>94</v>
       </c>
       <c r="D72" t="n">
-        <v>92.47180000000003</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E72" t="n">
-        <v>88.2848975</v>
+        <v>80.0324375</v>
       </c>
       <c r="F72" t="n">
-        <v>78.11831262296408</v>
+        <v>53.96880022441068</v>
       </c>
       <c r="G72" t="n">
-        <v>88.09344551194658</v>
+        <v>91.21030578968339</v>
       </c>
       <c r="H72" t="n">
-        <v>85.70996607999999</v>
+        <v>85.859728</v>
       </c>
       <c r="I72" t="n">
-        <v>47.65448695402607</v>
+        <v>60.43716719632174</v>
       </c>
       <c r="J72" t="n">
-        <v>68.7107031055796</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K72" t="n">
-        <v>99.75520531000001</v>
+        <v>96.30698844</v>
       </c>
       <c r="L72" t="n">
-        <v>81.19868597038921</v>
-      </c>
+        <v>82.67297321221085</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>38188</v>
+        <v>39351</v>
       </c>
       <c r="C73" t="n">
         <v>94</v>
       </c>
       <c r="D73" t="n">
-        <v>92.47180000000003</v>
+        <v>85.41533699999979</v>
       </c>
       <c r="E73" t="n">
-        <v>88.2848975</v>
+        <v>81.26297749999999</v>
       </c>
       <c r="F73" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G73" t="n">
-        <v>88.09344551194658</v>
+        <v>88.60267537528225</v>
       </c>
       <c r="H73" t="n">
-        <v>85.70996607999999</v>
+        <v>85.859728</v>
       </c>
       <c r="I73" t="n">
-        <v>47.65448695402607</v>
+        <v>61.23916860831322</v>
       </c>
       <c r="J73" t="n">
-        <v>68.7107031055796</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K73" t="n">
-        <v>99.75520531000001</v>
+        <v>96.46486224</v>
       </c>
       <c r="L73" t="n">
-        <v>81.19868597038921</v>
-      </c>
+        <v>83.17939560582474</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>38111</v>
+        <v>39289</v>
       </c>
       <c r="C74" t="n">
         <v>94</v>
       </c>
       <c r="D74" t="n">
-        <v>89.75791299999992</v>
+        <v>85.41533699999979</v>
       </c>
       <c r="E74" t="n">
-        <v>92.08577750000001</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F74" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G74" t="n">
-        <v>86.83849498013387</v>
+        <v>91.46305841842509</v>
       </c>
       <c r="H74" t="n">
-        <v>85.677088</v>
+        <v>85.45057408</v>
       </c>
       <c r="I74" t="n">
-        <v>80.13202028617724</v>
+        <v>31.60923249325507</v>
       </c>
       <c r="J74" t="n">
-        <v>90.99817905523346</v>
+        <v>68.7107031055796</v>
       </c>
       <c r="K74" t="n">
-        <v>92.59143324</v>
+        <v>96.93995196</v>
       </c>
       <c r="L74" t="n">
-        <v>87.3451184813691</v>
-      </c>
+        <v>78.50029274037489</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>38111</v>
+        <v>39224</v>
       </c>
       <c r="C75" t="n">
         <v>94</v>
       </c>
       <c r="D75" t="n">
-        <v>89.75791299999992</v>
+        <v>73.63017699999989</v>
       </c>
       <c r="E75" t="n">
-        <v>92.08577750000001</v>
+        <v>94.81099999999999</v>
       </c>
       <c r="F75" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G75" t="n">
-        <v>86.83849498013387</v>
+        <v>82.26047997094525</v>
       </c>
       <c r="H75" t="n">
-        <v>85.677088</v>
+        <v>76.6194</v>
       </c>
       <c r="I75" t="n">
-        <v>80.13202028617724</v>
+        <v>62.10279129816617</v>
       </c>
       <c r="J75" t="n">
-        <v>90.99817905523346</v>
+        <v>81.32599363290117</v>
       </c>
       <c r="K75" t="n">
-        <v>92.59143324</v>
+        <v>97.41724416</v>
       </c>
       <c r="L75" t="n">
-        <v>87.3451184813691</v>
-      </c>
+        <v>80.93590857137214</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>38069</v>
+        <v>39147</v>
       </c>
       <c r="C76" t="n">
         <v>94</v>
       </c>
       <c r="D76" t="n">
-        <v>88.12000000000012</v>
+        <v>91.79679999999996</v>
       </c>
       <c r="E76" t="n">
-        <v>87.59375</v>
+        <v>96.33599</v>
       </c>
       <c r="F76" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G76" t="n">
         <v>86.83849498013387</v>
       </c>
       <c r="H76" t="n">
-        <v>78.15027000000001</v>
+        <v>85.61620032</v>
       </c>
       <c r="I76" t="n">
-        <v>61.23916860831322</v>
+        <v>45.99229363437035</v>
       </c>
       <c r="J76" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K76" t="n">
-        <v>91.98587836</v>
+        <v>98.62011051</v>
       </c>
       <c r="L76" t="n">
-        <v>83.5518481782415</v>
-      </c>
+        <v>82.76011286515811</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>38069</v>
+        <v>39093</v>
       </c>
       <c r="C77" t="n">
         <v>94</v>
       </c>
       <c r="D77" t="n">
-        <v>88.12000000000012</v>
+        <v>87.71579199999996</v>
       </c>
       <c r="E77" t="n">
-        <v>87.59375</v>
+        <v>94.30871</v>
       </c>
       <c r="F77" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G77" t="n">
-        <v>86.83849498013387</v>
+        <v>42.30292539998675</v>
       </c>
       <c r="H77" t="n">
-        <v>78.15027000000001</v>
+        <v>86.061808</v>
       </c>
       <c r="I77" t="n">
-        <v>61.23916860831322</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J77" t="n">
         <v>93.59088042075324</v>
       </c>
       <c r="K77" t="n">
-        <v>91.98587836</v>
+        <v>96.30698844</v>
       </c>
       <c r="L77" t="n">
-        <v>83.5518481782415</v>
-      </c>
+        <v>79.88875042490618</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>38001</v>
+        <v>39034</v>
       </c>
       <c r="C78" t="n">
         <v>94</v>
       </c>
       <c r="D78" t="n">
-        <v>84.80000000000001</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E78" t="n">
-        <v>81.056</v>
+        <v>92.81995999999999</v>
       </c>
       <c r="F78" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G78" t="n">
-        <v>94.48233979075248</v>
+        <v>77.57181539957728</v>
       </c>
       <c r="H78" t="n">
-        <v>64.0941</v>
+        <v>85.82085567999999</v>
       </c>
       <c r="I78" t="n">
-        <v>70.19803042926586</v>
+        <v>100</v>
       </c>
       <c r="J78" t="n">
-        <v>93.59088042075324</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K78" t="n">
-        <v>97.33754251000001</v>
+        <v>97.01934770999999</v>
       </c>
       <c r="L78" t="n">
-        <v>84.68438388418953</v>
-      </c>
+        <v>89.59427181114789</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>38001</v>
+        <v>38987</v>
       </c>
       <c r="C79" t="n">
         <v>94</v>
       </c>
       <c r="D79" t="n">
-        <v>84.80000000000001</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E79" t="n">
-        <v>81.056</v>
+        <v>88.2848975</v>
       </c>
       <c r="F79" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G79" t="n">
-        <v>94.48233979075248</v>
+        <v>92.11499456792673</v>
       </c>
       <c r="H79" t="n">
-        <v>64.0941</v>
+        <v>82.73208767999999</v>
       </c>
       <c r="I79" t="n">
-        <v>70.19803042926586</v>
+        <v>100</v>
       </c>
       <c r="J79" t="n">
-        <v>93.59088042075324</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K79" t="n">
-        <v>97.33754251000001</v>
+        <v>93.27736274999999</v>
       </c>
       <c r="L79" t="n">
-        <v>84.68438388418953</v>
-      </c>
+        <v>90.77181162817502</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>37937</v>
+        <v>38916</v>
       </c>
       <c r="C80" t="n">
         <v>94</v>
       </c>
       <c r="D80" t="n">
-        <v>92.37119999999999</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E80" t="n">
-        <v>88.51679</v>
+        <v>93.0661975</v>
       </c>
       <c r="F80" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G80" t="n">
-        <v>92.06035414362874</v>
+        <v>93.6688755448464</v>
       </c>
       <c r="H80" t="n">
-        <v>85.84068352</v>
+        <v>85.73371072</v>
       </c>
       <c r="I80" t="n">
-        <v>90.06601014308862</v>
+        <v>100</v>
       </c>
       <c r="J80" t="n">
-        <v>94.91480246235628</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K80" t="n">
-        <v>97.09880464000001</v>
+        <v>94.50902898999999</v>
       </c>
       <c r="L80" t="n">
-        <v>90.60649558001224</v>
-      </c>
+        <v>91.83478186145133</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>37937</v>
+        <v>38839</v>
       </c>
       <c r="C81" t="n">
         <v>94</v>
@@ -3443,188 +3613,198 @@
         <v>92.37119999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>88.51679</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F81" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G81" t="n">
-        <v>92.06035414362874</v>
+        <v>86.76160111831948</v>
       </c>
       <c r="H81" t="n">
-        <v>85.84068352</v>
+        <v>85.88390208</v>
       </c>
       <c r="I81" t="n">
-        <v>90.06601014308862</v>
+        <v>100</v>
       </c>
       <c r="J81" t="n">
-        <v>94.91480246235628</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K81" t="n">
-        <v>97.09880464000001</v>
+        <v>94.12245084</v>
       </c>
       <c r="L81" t="n">
-        <v>90.60649558001224</v>
-      </c>
+        <v>91.07427274488606</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>37873</v>
+        <v>38783</v>
       </c>
       <c r="C82" t="n">
         <v>94</v>
       </c>
       <c r="D82" t="n">
-        <v>90.34620000000007</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E82" t="n">
-        <v>83.37427750000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F82" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G82" t="n">
-        <v>94.3422112806264</v>
+        <v>79.97200071184162</v>
       </c>
       <c r="H82" t="n">
-        <v>85.70187711999999</v>
+        <v>85.61620032</v>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
+        <v>50.53449207211783</v>
       </c>
       <c r="J82" t="n">
-        <v>83.64311708452861</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K82" t="n">
-        <v>96.46486224</v>
+        <v>94.431591</v>
       </c>
       <c r="L82" t="n">
-        <v>90.62844148205576</v>
-      </c>
+        <v>82.34678742525051</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>37873</v>
+        <v>38729</v>
       </c>
       <c r="C83" t="n">
         <v>94</v>
       </c>
       <c r="D83" t="n">
-        <v>90.34620000000007</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>83.37427750000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F83" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G83" t="n">
-        <v>94.3422112806264</v>
+        <v>98.03614904024643</v>
       </c>
       <c r="H83" t="n">
-        <v>85.70187711999999</v>
+        <v>85.57949248</v>
       </c>
       <c r="I83" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J83" t="n">
-        <v>83.64311708452861</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K83" t="n">
-        <v>96.46486224</v>
+        <v>98.05705983999999</v>
       </c>
       <c r="L83" t="n">
-        <v>90.62844148205576</v>
-      </c>
+        <v>87.77218522361362</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>37824</v>
+        <v>38672</v>
       </c>
       <c r="C84" t="n">
         <v>94</v>
       </c>
       <c r="D84" t="n">
-        <v>87.71579199999996</v>
+        <v>92.37119999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>93.31318999999999</v>
+        <v>95.31631</v>
       </c>
       <c r="F84" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G84" t="n">
-        <v>96.68528141136295</v>
+        <v>95.42728848768118</v>
       </c>
       <c r="H84" t="n">
-        <v>32</v>
+        <v>85.634032</v>
       </c>
       <c r="I84" t="n">
         <v>100</v>
       </c>
       <c r="J84" t="n">
-        <v>94.91480246235628</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K84" t="n">
-        <v>96.70213179000001</v>
+        <v>97.576831</v>
       </c>
       <c r="L84" t="n">
-        <v>87.45497585987179</v>
-      </c>
+        <v>93.11181280727752</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>37824</v>
+        <v>38623</v>
       </c>
       <c r="C85" t="n">
         <v>94</v>
       </c>
       <c r="D85" t="n">
-        <v>87.71579199999996</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E85" t="n">
-        <v>93.31318999999999</v>
+        <v>89.21699750000001</v>
       </c>
       <c r="F85" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G85" t="n">
-        <v>96.68528141136295</v>
+        <v>94.3422112806264</v>
       </c>
       <c r="H85" t="n">
-        <v>32</v>
+        <v>85.93824447999999</v>
       </c>
       <c r="I85" t="n">
         <v>100</v>
       </c>
       <c r="J85" t="n">
-        <v>94.91480246235628</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K85" t="n">
-        <v>96.70213179000001</v>
+        <v>99.18615899999999</v>
       </c>
       <c r="L85" t="n">
-        <v>87.45497585987179</v>
-      </c>
+        <v>92.37747634392625</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>37747</v>
+        <v>38552</v>
       </c>
       <c r="C86" t="n">
         <v>94</v>
@@ -3633,226 +3813,238 @@
         <v>89.75791299999992</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F86" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G86" t="n">
-        <v>79.40171325129569</v>
+        <v>89.93663281924577</v>
       </c>
       <c r="H86" t="n">
-        <v>85.6978</v>
+        <v>85.859728</v>
       </c>
       <c r="I86" t="n">
         <v>100</v>
       </c>
       <c r="J86" t="n">
-        <v>81.32599363290117</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K86" t="n">
-        <v>93.50710716</v>
+        <v>97.33754251000001</v>
       </c>
       <c r="L86" t="n">
-        <v>87.91420924671483</v>
-      </c>
+        <v>91.60049113464351</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>37637</v>
+        <v>38475</v>
       </c>
       <c r="C87" t="n">
         <v>94</v>
       </c>
       <c r="D87" t="n">
-        <v>91.54169999999976</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E87" t="n">
-        <v>70.01900000000001</v>
+        <v>94.05869749999999</v>
       </c>
       <c r="F87" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G87" t="n">
-        <v>88.05139562007429</v>
+        <v>84.34724557864911</v>
       </c>
       <c r="H87" t="n">
-        <v>85.94500000000001</v>
+        <v>85.92807232</v>
       </c>
       <c r="I87" t="n">
-        <v>61.23916860831322</v>
+        <v>100</v>
       </c>
       <c r="J87" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K87" t="n">
-        <v>97.89673884</v>
+        <v>96.07063659000001</v>
       </c>
       <c r="L87" t="n">
-        <v>83.71805959847934</v>
-      </c>
+        <v>90.9595622973421</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>37637</v>
+        <v>38419</v>
       </c>
       <c r="C88" t="n">
         <v>94</v>
       </c>
       <c r="D88" t="n">
-        <v>91.54169999999976</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E88" t="n">
-        <v>70.01900000000001</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F88" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G88" t="n">
-        <v>88.05139562007429</v>
+        <v>91.77864544484964</v>
       </c>
       <c r="H88" t="n">
-        <v>85.94500000000001</v>
+        <v>85.80024448</v>
       </c>
       <c r="I88" t="n">
-        <v>61.23916860831322</v>
+        <v>100</v>
       </c>
       <c r="J88" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K88" t="n">
-        <v>97.89673884</v>
+        <v>97.49700698999999</v>
       </c>
       <c r="L88" t="n">
-        <v>83.71805959847934</v>
-      </c>
+        <v>92.29567048739619</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>37579</v>
+        <v>38365</v>
       </c>
       <c r="C89" t="n">
         <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>89.75791299999992</v>
+        <v>87.71579199999996</v>
       </c>
       <c r="E89" t="n">
-        <v>78.0419375</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F89" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G89" t="n">
-        <v>94.58078892959932</v>
+        <v>91.77864544484964</v>
       </c>
       <c r="H89" t="n">
-        <v>85.75667199999999</v>
+        <v>85.91216128000001</v>
       </c>
       <c r="I89" t="n">
-        <v>76.93398985691138</v>
+        <v>47.43027761065866</v>
       </c>
       <c r="J89" t="n">
-        <v>94.91480246235628</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K89" t="n">
-        <v>96.30698844</v>
+        <v>97.73666256</v>
       </c>
       <c r="L89" t="n">
-        <v>87.82768126910062</v>
-      </c>
+        <v>83.92542006999497</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>37579</v>
+        <v>38308</v>
       </c>
       <c r="C90" t="n">
         <v>94</v>
       </c>
       <c r="D90" t="n">
-        <v>89.75791299999992</v>
+        <v>85.41533699999979</v>
       </c>
       <c r="E90" t="n">
-        <v>78.0419375</v>
+        <v>91.84256000000001</v>
       </c>
       <c r="F90" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G90" t="n">
-        <v>94.58078892959932</v>
+        <v>89.05261443242338</v>
       </c>
       <c r="H90" t="n">
-        <v>85.75667199999999</v>
+        <v>85.27171199999999</v>
       </c>
       <c r="I90" t="n">
-        <v>76.93398985691138</v>
+        <v>55.52823489084087</v>
       </c>
       <c r="J90" t="n">
-        <v>94.91480246235628</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K90" t="n">
-        <v>96.30698844</v>
+        <v>96.70213179000001</v>
       </c>
       <c r="L90" t="n">
-        <v>87.82768126910062</v>
-      </c>
+        <v>83.86902423395784</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>37517</v>
+        <v>38245</v>
       </c>
       <c r="C91" t="n">
         <v>94</v>
       </c>
       <c r="D91" t="n">
-        <v>92.47180000000003</v>
+        <v>89.75791299999992</v>
       </c>
       <c r="E91" t="n">
-        <v>92.5744775</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F91" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G91" t="n">
-        <v>97.38743458825324</v>
+        <v>92.58340239846073</v>
       </c>
       <c r="H91" t="n">
-        <v>85.677088</v>
+        <v>85.75667199999999</v>
       </c>
       <c r="I91" t="n">
-        <v>100</v>
+        <v>84.25499859425113</v>
       </c>
       <c r="J91" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K91" t="n">
-        <v>98.05705983999999</v>
+        <v>97.576831</v>
       </c>
       <c r="L91" t="n">
-        <v>93.0299602718228</v>
-      </c>
+        <v>89.53143392124773</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>37517</v>
+        <v>38188</v>
       </c>
       <c r="C92" t="n">
         <v>94</v>
@@ -3861,650 +4053,684 @@
         <v>92.47180000000003</v>
       </c>
       <c r="E92" t="n">
-        <v>92.5744775</v>
+        <v>88.2848975</v>
       </c>
       <c r="F92" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G92" t="n">
-        <v>97.38743458825324</v>
+        <v>88.09344551194658</v>
       </c>
       <c r="H92" t="n">
-        <v>85.677088</v>
+        <v>85.70996607999999</v>
       </c>
       <c r="I92" t="n">
-        <v>100</v>
+        <v>47.65448695402607</v>
       </c>
       <c r="J92" t="n">
-        <v>90.99817905523346</v>
+        <v>68.7107031055796</v>
       </c>
       <c r="K92" t="n">
-        <v>98.05705983999999</v>
+        <v>99.75520531000001</v>
       </c>
       <c r="L92" t="n">
-        <v>93.0299602718228</v>
-      </c>
+        <v>81.19868597038921</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>37460</v>
+        <v>38111</v>
       </c>
       <c r="C93" t="n">
         <v>94</v>
       </c>
       <c r="D93" t="n">
-        <v>69.8049640000001</v>
+        <v>89.75791299999992</v>
       </c>
       <c r="E93" t="n">
-        <v>90.39910999999999</v>
+        <v>92.08577750000001</v>
       </c>
       <c r="F93" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G93" t="n">
-        <v>90.70123598185714</v>
+        <v>86.83849498013387</v>
       </c>
       <c r="H93" t="n">
-        <v>85.634032</v>
+        <v>85.677088</v>
       </c>
       <c r="I93" t="n">
-        <v>100</v>
+        <v>80.13202028617724</v>
       </c>
       <c r="J93" t="n">
-        <v>94.91480246235628</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K93" t="n">
-        <v>96.46486224</v>
+        <v>92.59143324</v>
       </c>
       <c r="L93" t="n">
-        <v>89.22825488944777</v>
-      </c>
+        <v>87.3451184813691</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>37460</v>
+        <v>38069</v>
       </c>
       <c r="C94" t="n">
         <v>94</v>
       </c>
       <c r="D94" t="n">
-        <v>69.8049640000001</v>
+        <v>88.12000000000012</v>
       </c>
       <c r="E94" t="n">
-        <v>90.39910999999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F94" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G94" t="n">
-        <v>90.70123598185714</v>
+        <v>86.83849498013387</v>
       </c>
       <c r="H94" t="n">
-        <v>85.634032</v>
+        <v>78.15027000000001</v>
       </c>
       <c r="I94" t="n">
-        <v>100</v>
+        <v>61.23916860831322</v>
       </c>
       <c r="J94" t="n">
-        <v>94.91480246235628</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K94" t="n">
-        <v>96.46486224</v>
+        <v>91.98587836</v>
       </c>
       <c r="L94" t="n">
-        <v>89.22825488944777</v>
-      </c>
+        <v>83.5518481782415</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>37383</v>
+        <v>38001</v>
       </c>
       <c r="C95" t="n">
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>80.03942499999994</v>
+        <v>84.80000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>92.697124375</v>
+        <v>81.056</v>
       </c>
       <c r="F95" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G95" t="n">
-        <v>85.83481428407217</v>
+        <v>94.48233979075248</v>
       </c>
       <c r="H95" t="n">
-        <v>85.440048</v>
+        <v>64.0941</v>
       </c>
       <c r="I95" t="n">
-        <v>80.13202028617724</v>
+        <v>70.19803042926586</v>
       </c>
       <c r="J95" t="n">
-        <v>81.32599363290117</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K95" t="n">
-        <v>99.75520531000001</v>
+        <v>97.33754251000001</v>
       </c>
       <c r="L95" t="n">
-        <v>85.78737741780537</v>
-      </c>
+        <v>84.68438388418953</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>37383</v>
+        <v>37937</v>
       </c>
       <c r="C96" t="n">
         <v>94</v>
       </c>
       <c r="D96" t="n">
-        <v>80.03942499999994</v>
+        <v>92.37119999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>92.697124375</v>
+        <v>88.51679</v>
       </c>
       <c r="F96" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G96" t="n">
-        <v>85.83481428407217</v>
+        <v>92.06035414362874</v>
       </c>
       <c r="H96" t="n">
-        <v>85.440048</v>
+        <v>85.84068352</v>
       </c>
       <c r="I96" t="n">
-        <v>80.13202028617724</v>
+        <v>90.06601014308862</v>
       </c>
       <c r="J96" t="n">
-        <v>81.32599363290117</v>
+        <v>94.91480246235628</v>
       </c>
       <c r="K96" t="n">
-        <v>99.75520531000001</v>
+        <v>97.09880464000001</v>
       </c>
       <c r="L96" t="n">
-        <v>85.78737741780537</v>
-      </c>
+        <v>90.60649558001224</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>37334</v>
+        <v>37873</v>
       </c>
       <c r="C97" t="n">
         <v>94</v>
       </c>
       <c r="D97" t="n">
-        <v>89.33005000000014</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E97" t="n">
-        <v>92.94298437499999</v>
+        <v>83.37427750000001</v>
       </c>
       <c r="F97" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G97" t="n">
-        <v>94.06143944473313</v>
+        <v>94.3422112806264</v>
       </c>
       <c r="H97" t="n">
-        <v>85.211248</v>
+        <v>85.70187711999999</v>
       </c>
       <c r="I97" t="n">
-        <v>84.25499859425113</v>
+        <v>100</v>
       </c>
       <c r="J97" t="n">
-        <v>93.59088042075324</v>
+        <v>83.64311708452861</v>
       </c>
       <c r="K97" t="n">
-        <v>98.94319971</v>
+        <v>96.46486224</v>
       </c>
       <c r="L97" t="n">
-        <v>90.06587836011407</v>
-      </c>
+        <v>90.62844148205576</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>37334</v>
+        <v>37824</v>
       </c>
       <c r="C98" t="n">
         <v>94</v>
       </c>
       <c r="D98" t="n">
-        <v>89.33005000000014</v>
+        <v>87.71579199999996</v>
       </c>
       <c r="E98" t="n">
-        <v>92.94298437499999</v>
+        <v>93.31318999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G98" t="n">
-        <v>94.06143944473313</v>
+        <v>96.68528141136295</v>
       </c>
       <c r="H98" t="n">
-        <v>85.211248</v>
+        <v>32</v>
       </c>
       <c r="I98" t="n">
-        <v>84.25499859425113</v>
+        <v>100</v>
       </c>
       <c r="J98" t="n">
-        <v>93.59088042075324</v>
+        <v>94.91480246235628</v>
       </c>
       <c r="K98" t="n">
-        <v>98.94319971</v>
+        <v>96.70213179000001</v>
       </c>
       <c r="L98" t="n">
-        <v>90.06587836011407</v>
-      </c>
+        <v>87.45497585987179</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>37286</v>
+        <v>37637</v>
       </c>
       <c r="C99" t="n">
         <v>94</v>
       </c>
       <c r="D99" t="n">
-        <v>92.03005000000013</v>
+        <v>91.54169999999976</v>
       </c>
       <c r="E99" t="n">
-        <v>89.6875775</v>
+        <v>70.01900000000001</v>
       </c>
       <c r="F99" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G99" t="n">
-        <v>97.15298137229067</v>
+        <v>88.05139562007429</v>
       </c>
       <c r="H99" t="n">
-        <v>85.634032</v>
+        <v>85.94500000000001</v>
       </c>
       <c r="I99" t="n">
-        <v>80.13202028617724</v>
+        <v>61.23916860831322</v>
       </c>
       <c r="J99" t="n">
         <v>90.99817905523346</v>
       </c>
       <c r="K99" t="n">
-        <v>99.75520531000001</v>
+        <v>97.89673884</v>
       </c>
       <c r="L99" t="n">
-        <v>89.89231433503576</v>
-      </c>
+        <v>83.71805959847934</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>37286</v>
+        <v>37579</v>
       </c>
       <c r="C100" t="n">
         <v>94</v>
       </c>
       <c r="D100" t="n">
-        <v>92.03005000000013</v>
+        <v>89.75791299999992</v>
       </c>
       <c r="E100" t="n">
-        <v>89.6875775</v>
+        <v>78.0419375</v>
       </c>
       <c r="F100" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G100" t="n">
-        <v>97.15298137229067</v>
+        <v>94.58078892959932</v>
       </c>
       <c r="H100" t="n">
-        <v>85.634032</v>
+        <v>85.75667199999999</v>
       </c>
       <c r="I100" t="n">
-        <v>80.13202028617724</v>
+        <v>76.93398985691138</v>
       </c>
       <c r="J100" t="n">
-        <v>90.99817905523346</v>
+        <v>94.91480246235628</v>
       </c>
       <c r="K100" t="n">
-        <v>99.75520531000001</v>
+        <v>96.30698844</v>
       </c>
       <c r="L100" t="n">
-        <v>89.89231433503576</v>
-      </c>
+        <v>87.82768126910062</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>37208</v>
+        <v>37517</v>
       </c>
       <c r="C101" t="n">
         <v>94</v>
       </c>
       <c r="D101" t="n">
-        <v>90.34620000000007</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E101" t="n">
-        <v>83.15975</v>
+        <v>92.5744775</v>
       </c>
       <c r="F101" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G101" t="n">
-        <v>92.34843847445653</v>
+        <v>97.38743458825324</v>
       </c>
       <c r="H101" t="n">
         <v>85.677088</v>
       </c>
       <c r="I101" t="n">
-        <v>51.48995043768277</v>
+        <v>100</v>
       </c>
       <c r="J101" t="n">
         <v>90.99817905523346</v>
       </c>
       <c r="K101" t="n">
-        <v>98.53949116</v>
+        <v>98.05705983999999</v>
       </c>
       <c r="L101" t="n">
-        <v>83.93681643012977</v>
-      </c>
+        <v>93.0299602718228</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>37208</v>
+        <v>37460</v>
       </c>
       <c r="C102" t="n">
         <v>94</v>
       </c>
       <c r="D102" t="n">
-        <v>90.34620000000007</v>
+        <v>69.8049640000001</v>
       </c>
       <c r="E102" t="n">
-        <v>83.15975</v>
+        <v>90.39910999999999</v>
       </c>
       <c r="F102" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G102" t="n">
-        <v>92.34843847445653</v>
+        <v>90.70123598185714</v>
       </c>
       <c r="H102" t="n">
-        <v>85.677088</v>
+        <v>85.634032</v>
       </c>
       <c r="I102" t="n">
-        <v>51.48995043768277</v>
+        <v>100</v>
       </c>
       <c r="J102" t="n">
-        <v>90.99817905523346</v>
+        <v>94.91480246235628</v>
       </c>
       <c r="K102" t="n">
-        <v>98.53949116</v>
+        <v>96.46486224</v>
       </c>
       <c r="L102" t="n">
-        <v>83.93681643012977</v>
-      </c>
+        <v>89.22825488944777</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>37145</v>
+        <v>37383</v>
       </c>
       <c r="C103" t="n">
         <v>94</v>
       </c>
       <c r="D103" t="n">
-        <v>92.51845000000014</v>
+        <v>80.03942499999994</v>
       </c>
       <c r="E103" t="n">
-        <v>73.39600000000002</v>
+        <v>92.697124375</v>
       </c>
       <c r="F103" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G103" t="n">
-        <v>94.99854887110945</v>
+        <v>85.83481428407217</v>
       </c>
       <c r="H103" t="n">
-        <v>86.02403200000001</v>
+        <v>85.440048</v>
       </c>
       <c r="I103" t="n">
-        <v>90.06601014308862</v>
+        <v>80.13202028617724</v>
       </c>
       <c r="J103" t="n">
-        <v>90.99817905523346</v>
+        <v>81.32599363290117</v>
       </c>
       <c r="K103" t="n">
-        <v>92.43967744</v>
+        <v>99.75520531000001</v>
       </c>
       <c r="L103" t="n">
-        <v>89.07108830137167</v>
-      </c>
+        <v>85.78737741780537</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>37145</v>
+        <v>37334</v>
       </c>
       <c r="C104" t="n">
         <v>94</v>
       </c>
       <c r="D104" t="n">
-        <v>92.51845000000014</v>
+        <v>89.33005000000014</v>
       </c>
       <c r="E104" t="n">
-        <v>73.39600000000002</v>
+        <v>92.94298437499999</v>
       </c>
       <c r="F104" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G104" t="n">
-        <v>94.99854887110945</v>
+        <v>94.06143944473313</v>
       </c>
       <c r="H104" t="n">
-        <v>86.02403200000001</v>
+        <v>85.211248</v>
       </c>
       <c r="I104" t="n">
-        <v>90.06601014308862</v>
+        <v>84.25499859425113</v>
       </c>
       <c r="J104" t="n">
-        <v>90.99817905523346</v>
+        <v>93.59088042075324</v>
       </c>
       <c r="K104" t="n">
-        <v>92.43967744</v>
+        <v>98.94319971</v>
       </c>
       <c r="L104" t="n">
-        <v>89.07108830137167</v>
-      </c>
+        <v>90.06587836011407</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>37103</v>
+        <v>37286</v>
       </c>
       <c r="C105" t="n">
         <v>94</v>
       </c>
       <c r="D105" t="n">
-        <v>82.85654799999986</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E105" t="n">
-        <v>87.59375</v>
+        <v>89.6875775</v>
       </c>
       <c r="F105" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G105" t="n">
-        <v>92.97853527172353</v>
+        <v>97.15298137229067</v>
       </c>
       <c r="H105" t="n">
-        <v>85.79320000000001</v>
+        <v>85.634032</v>
       </c>
       <c r="I105" t="n">
-        <v>100</v>
+        <v>80.13202028617724</v>
       </c>
       <c r="J105" t="n">
-        <v>70.66839429915315</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K105" t="n">
-        <v>93.66057599999999</v>
+        <v>99.75520531000001</v>
       </c>
       <c r="L105" t="n">
-        <v>88.26482104840473</v>
-      </c>
+        <v>89.89231433503576</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>37103</v>
+        <v>37208</v>
       </c>
       <c r="C106" t="n">
         <v>94</v>
       </c>
       <c r="D106" t="n">
-        <v>82.85654799999986</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E106" t="n">
-        <v>87.59375</v>
+        <v>83.15975</v>
       </c>
       <c r="F106" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G106" t="n">
-        <v>92.97853527172353</v>
+        <v>92.34843847445653</v>
       </c>
       <c r="H106" t="n">
-        <v>85.79320000000001</v>
+        <v>85.677088</v>
       </c>
       <c r="I106" t="n">
-        <v>100</v>
+        <v>51.48995043768277</v>
       </c>
       <c r="J106" t="n">
-        <v>70.66839429915315</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K106" t="n">
-        <v>93.66057599999999</v>
+        <v>98.53949116</v>
       </c>
       <c r="L106" t="n">
-        <v>88.26482104840473</v>
-      </c>
+        <v>83.93681643012977</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>37019</v>
+        <v>37145</v>
       </c>
       <c r="C107" t="n">
         <v>94</v>
       </c>
       <c r="D107" t="n">
-        <v>92.47180000000003</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E107" t="n">
-        <v>94.81099999999999</v>
+        <v>73.39600000000002</v>
       </c>
       <c r="F107" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G107" t="n">
-        <v>88.67812823405004</v>
+        <v>94.99854887110945</v>
       </c>
       <c r="H107" t="n">
-        <v>85.677088</v>
+        <v>86.02403200000001</v>
       </c>
       <c r="I107" t="n">
-        <v>100</v>
+        <v>90.06601014308862</v>
       </c>
       <c r="J107" t="n">
-        <v>88.47730199931041</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K107" t="n">
-        <v>97.49700698999999</v>
+        <v>92.43967744</v>
       </c>
       <c r="L107" t="n">
-        <v>91.42020700101597</v>
-      </c>
+        <v>89.07108830137167</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>37019</v>
+        <v>37103</v>
       </c>
       <c r="C108" t="n">
         <v>94</v>
       </c>
       <c r="D108" t="n">
-        <v>92.47180000000003</v>
+        <v>82.85654799999986</v>
       </c>
       <c r="E108" t="n">
-        <v>94.81099999999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F108" t="n">
         <v>78.11831262296408</v>
       </c>
       <c r="G108" t="n">
-        <v>88.67812823405004</v>
+        <v>92.97853527172353</v>
       </c>
       <c r="H108" t="n">
-        <v>85.677088</v>
+        <v>85.79320000000001</v>
       </c>
       <c r="I108" t="n">
         <v>100</v>
       </c>
       <c r="J108" t="n">
-        <v>88.47730199931041</v>
+        <v>70.66839429915315</v>
       </c>
       <c r="K108" t="n">
-        <v>97.49700698999999</v>
+        <v>93.66057599999999</v>
       </c>
       <c r="L108" t="n">
-        <v>91.42020700101597</v>
-      </c>
+        <v>88.26482104840473</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>36970</v>
+        <v>37019</v>
       </c>
       <c r="C109" t="n">
         <v>94</v>
       </c>
       <c r="D109" t="n">
-        <v>92.37119999999999</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E109" t="n">
         <v>94.81099999999999</v>
@@ -4513,23 +4739,25 @@
         <v>78.11831262296408</v>
       </c>
       <c r="G109" t="n">
-        <v>85.58329715374077</v>
+        <v>88.67812823405004</v>
       </c>
       <c r="H109" t="n">
-        <v>85.58879999999999</v>
+        <v>85.677088</v>
       </c>
       <c r="I109" t="n">
-        <v>90.06601014308862</v>
+        <v>100</v>
       </c>
       <c r="J109" t="n">
-        <v>90.99817905523346</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K109" t="n">
-        <v>96.30698844</v>
+        <v>97.49700698999999</v>
       </c>
       <c r="L109" t="n">
-        <v>89.51793804941897</v>
-      </c>
+        <v>91.42020700101597</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4568,6 +4796,8 @@
       <c r="L110" t="n">
         <v>89.51793804941897</v>
       </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4606,31 +4836,33 @@
       <c r="L111" t="n">
         <v>78.48706185296284</v>
       </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>36900</v>
+        <v>36852</v>
       </c>
       <c r="C112" t="n">
         <v>94</v>
       </c>
       <c r="D112" t="n">
-        <v>91.79679999999996</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>94.81099999999999</v>
+        <v>87.892412975</v>
       </c>
       <c r="F112" t="n">
-        <v>43.28373466485638</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G112" t="n">
-        <v>35.97699551149338</v>
+        <v>92.20923757661076</v>
       </c>
       <c r="H112" t="n">
-        <v>79.68114</v>
+        <v>85.717968</v>
       </c>
       <c r="I112" t="n">
         <v>100</v>
@@ -4639,100 +4871,106 @@
         <v>90.99817905523346</v>
       </c>
       <c r="K112" t="n">
-        <v>95.67794044</v>
+        <v>93.35388304</v>
       </c>
       <c r="L112" t="n">
-        <v>78.48706185296284</v>
-      </c>
+        <v>90.5794383378436</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>36852</v>
+        <v>36788</v>
       </c>
       <c r="C113" t="n">
         <v>94</v>
       </c>
       <c r="D113" t="n">
-        <v>86.40000000000001</v>
+        <v>84.80000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>87.892412975</v>
+        <v>77.075</v>
       </c>
       <c r="F113" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G113" t="n">
-        <v>92.20923757661076</v>
+        <v>98.17810588353349</v>
       </c>
       <c r="H113" t="n">
-        <v>85.717968</v>
+        <v>86.02403200000001</v>
       </c>
       <c r="I113" t="n">
-        <v>100</v>
+        <v>90.06601014308862</v>
       </c>
       <c r="J113" t="n">
-        <v>90.99817905523346</v>
+        <v>76.88253884036153</v>
       </c>
       <c r="K113" t="n">
-        <v>93.35388304</v>
+        <v>92.59143324</v>
       </c>
       <c r="L113" t="n">
-        <v>90.5794383378436</v>
-      </c>
+        <v>86.67733364440461</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>36788</v>
+        <v>36725</v>
       </c>
       <c r="C114" t="n">
         <v>94</v>
       </c>
       <c r="D114" t="n">
-        <v>84.80000000000001</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E114" t="n">
-        <v>77.075</v>
+        <v>92.32974999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G114" t="n">
-        <v>98.17810588353349</v>
+        <v>92.27131805142206</v>
       </c>
       <c r="H114" t="n">
-        <v>86.02403200000001</v>
+        <v>73.55766</v>
       </c>
       <c r="I114" t="n">
-        <v>90.06601014308862</v>
+        <v>100</v>
       </c>
       <c r="J114" t="n">
-        <v>76.88253884036153</v>
+        <v>90.99817905523346</v>
       </c>
       <c r="K114" t="n">
-        <v>92.59143324</v>
+        <v>97.97686875000001</v>
       </c>
       <c r="L114" t="n">
-        <v>86.67733364440461</v>
-      </c>
+        <v>90.90799691156151</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>36725</v>
+        <v>36648</v>
       </c>
       <c r="C115" t="n">
         <v>94</v>
       </c>
       <c r="D115" t="n">
-        <v>90.34620000000007</v>
+        <v>85.41533699999979</v>
       </c>
       <c r="E115" t="n">
         <v>92.32974999999999</v>
@@ -4741,86 +4979,90 @@
         <v>78.11831262296408</v>
       </c>
       <c r="G115" t="n">
-        <v>92.27131805142206</v>
+        <v>90.37994143753603</v>
       </c>
       <c r="H115" t="n">
-        <v>73.55766</v>
+        <v>85.38611200000001</v>
       </c>
       <c r="I115" t="n">
-        <v>100</v>
+        <v>90.06601014308862</v>
       </c>
       <c r="J115" t="n">
         <v>90.99817905523346</v>
       </c>
       <c r="K115" t="n">
-        <v>97.97686875000001</v>
+        <v>92.66740290999999</v>
       </c>
       <c r="L115" t="n">
-        <v>90.90799691156151</v>
-      </c>
+        <v>88.91999042466415</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>36648</v>
+        <v>36599</v>
       </c>
       <c r="C116" t="n">
         <v>94</v>
       </c>
       <c r="D116" t="n">
-        <v>85.41533699999979</v>
+        <v>82.85654799999986</v>
       </c>
       <c r="E116" t="n">
-        <v>92.32974999999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F116" t="n">
-        <v>78.11831262296408</v>
+        <v>61.04912732152012</v>
       </c>
       <c r="G116" t="n">
-        <v>90.37994143753603</v>
+        <v>88.0876540240375</v>
       </c>
       <c r="H116" t="n">
-        <v>85.38611200000001</v>
+        <v>85.75667199999999</v>
       </c>
       <c r="I116" t="n">
-        <v>90.06601014308862</v>
+        <v>100</v>
       </c>
       <c r="J116" t="n">
         <v>90.99817905523346</v>
       </c>
       <c r="K116" t="n">
-        <v>92.66740290999999</v>
+        <v>99.26726779000001</v>
       </c>
       <c r="L116" t="n">
-        <v>88.91999042466415</v>
-      </c>
+        <v>88.31717812076171</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>36599</v>
+        <v>36529</v>
       </c>
       <c r="C117" t="n">
         <v>94</v>
       </c>
       <c r="D117" t="n">
-        <v>82.85654799999986</v>
+        <v>92.51845000000014</v>
       </c>
       <c r="E117" t="n">
         <v>87.59375</v>
       </c>
       <c r="F117" t="n">
-        <v>61.04912732152012</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G117" t="n">
-        <v>88.0876540240375</v>
+        <v>92.06035414362874</v>
       </c>
       <c r="H117" t="n">
-        <v>85.75667199999999</v>
+        <v>85.677088</v>
       </c>
       <c r="I117" t="n">
         <v>100</v>
@@ -4829,252 +5071,266 @@
         <v>90.99817905523346</v>
       </c>
       <c r="K117" t="n">
-        <v>99.26726779000001</v>
+        <v>96.22814331000001</v>
       </c>
       <c r="L117" t="n">
-        <v>88.31717812076171</v>
-      </c>
+        <v>91.54860474323667</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>36529</v>
+        <v>36474</v>
       </c>
       <c r="C118" t="n">
         <v>94</v>
       </c>
       <c r="D118" t="n">
-        <v>92.51845000000014</v>
+        <v>92.03005000000013</v>
       </c>
       <c r="E118" t="n">
         <v>87.59375</v>
       </c>
       <c r="F118" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G118" t="n">
-        <v>92.06035414362874</v>
+        <v>91.17832825709918</v>
       </c>
       <c r="H118" t="n">
-        <v>85.677088</v>
+        <v>59.919</v>
       </c>
       <c r="I118" t="n">
-        <v>100</v>
+        <v>39.09337777500303</v>
       </c>
       <c r="J118" t="n">
         <v>90.99817905523346</v>
       </c>
       <c r="K118" t="n">
-        <v>96.22814331000001</v>
+        <v>95.75635731</v>
       </c>
       <c r="L118" t="n">
-        <v>91.54860474323667</v>
-      </c>
+        <v>79.19023646118515</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>36474</v>
+        <v>36411</v>
       </c>
       <c r="C119" t="n">
         <v>94</v>
       </c>
       <c r="D119" t="n">
-        <v>92.03005000000013</v>
+        <v>90.34620000000007</v>
       </c>
       <c r="E119" t="n">
-        <v>87.59375</v>
+        <v>89.92399999999999</v>
       </c>
       <c r="F119" t="n">
         <v>69.05834354704467</v>
       </c>
       <c r="G119" t="n">
-        <v>91.17832825709918</v>
+        <v>94.19648056916377</v>
       </c>
       <c r="H119" t="n">
-        <v>59.919</v>
+        <v>86.070048</v>
       </c>
       <c r="I119" t="n">
-        <v>39.09337777500303</v>
+        <v>100</v>
       </c>
       <c r="J119" t="n">
-        <v>90.99817905523346</v>
+        <v>76.88253884036153</v>
       </c>
       <c r="K119" t="n">
-        <v>95.75635731</v>
+        <v>97.73666256</v>
       </c>
       <c r="L119" t="n">
-        <v>79.19023646118515</v>
-      </c>
+        <v>89.70222403149849</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>36411</v>
+        <v>36368</v>
       </c>
       <c r="C120" t="n">
         <v>94</v>
       </c>
       <c r="D120" t="n">
-        <v>90.34620000000007</v>
+        <v>92.47180000000003</v>
       </c>
       <c r="E120" t="n">
-        <v>89.92399999999999</v>
+        <v>87.59375</v>
       </c>
       <c r="F120" t="n">
         <v>69.05834354704467</v>
       </c>
       <c r="G120" t="n">
-        <v>94.19648056916377</v>
+        <v>93.73227378936693</v>
       </c>
       <c r="H120" t="n">
-        <v>86.070048</v>
+        <v>85.33</v>
       </c>
       <c r="I120" t="n">
         <v>100</v>
       </c>
       <c r="J120" t="n">
-        <v>76.88253884036153</v>
+        <v>88.47730199931041</v>
       </c>
       <c r="K120" t="n">
-        <v>97.73666256</v>
+        <v>95.44305691000001</v>
       </c>
       <c r="L120" t="n">
-        <v>89.70222403149849</v>
-      </c>
+        <v>90.56287278982791</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>36368</v>
+        <v>36284</v>
       </c>
       <c r="C121" t="n">
         <v>94</v>
       </c>
       <c r="D121" t="n">
-        <v>92.47180000000003</v>
+        <v>92.37119999999999</v>
       </c>
       <c r="E121" t="n">
         <v>87.59375</v>
       </c>
       <c r="F121" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G121" t="n">
-        <v>93.73227378936693</v>
+        <v>93.97330425686268</v>
       </c>
       <c r="H121" t="n">
-        <v>85.33</v>
+        <v>85.634032</v>
       </c>
       <c r="I121" t="n">
         <v>100</v>
       </c>
       <c r="J121" t="n">
-        <v>88.47730199931041</v>
+        <v>74.75270030759108</v>
       </c>
       <c r="K121" t="n">
-        <v>95.44305691000001</v>
+        <v>92.1369</v>
       </c>
       <c r="L121" t="n">
-        <v>90.56287278982791</v>
-      </c>
+        <v>89.81901957672217</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>36284</v>
+        <v>36221</v>
       </c>
       <c r="C122" t="n">
         <v>94</v>
       </c>
       <c r="D122" t="n">
-        <v>92.37119999999999</v>
+        <v>91.16845000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>87.59375</v>
+        <v>77.075</v>
       </c>
       <c r="F122" t="n">
-        <v>78.11831262296408</v>
+        <v>69.05834354704467</v>
       </c>
       <c r="G122" t="n">
-        <v>93.97330425686268</v>
+        <v>89.95690209749111</v>
       </c>
       <c r="H122" t="n">
-        <v>85.634032</v>
+        <v>83.22</v>
       </c>
       <c r="I122" t="n">
-        <v>100</v>
+        <v>90.06601014308862</v>
       </c>
       <c r="J122" t="n">
-        <v>74.75270030759108</v>
+        <v>86.02625954004694</v>
       </c>
       <c r="K122" t="n">
-        <v>92.1369</v>
+        <v>93.66057599999999</v>
       </c>
       <c r="L122" t="n">
-        <v>89.81901957672217</v>
-      </c>
+        <v>86.84090678674595</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>36221</v>
+        <v>36187</v>
       </c>
       <c r="C123" t="n">
         <v>94</v>
       </c>
       <c r="D123" t="n">
-        <v>91.16845000000001</v>
+        <v>88.12000000000012</v>
       </c>
       <c r="E123" t="n">
-        <v>77.075</v>
+        <v>87.59375</v>
       </c>
       <c r="F123" t="n">
-        <v>69.05834354704467</v>
+        <v>78.11831262296408</v>
       </c>
       <c r="G123" t="n">
-        <v>89.95690209749111</v>
+        <v>98.23263102354042</v>
       </c>
       <c r="H123" t="n">
-        <v>83.22</v>
+        <v>84.876288</v>
       </c>
       <c r="I123" t="n">
-        <v>90.06601014308862</v>
+        <v>51.48995043768277</v>
       </c>
       <c r="J123" t="n">
-        <v>86.02625954004694</v>
+        <v>96.25745249929778</v>
       </c>
       <c r="K123" t="n">
-        <v>93.66057599999999</v>
+        <v>97.576831</v>
       </c>
       <c r="L123" t="n">
-        <v>86.84090678674595</v>
-      </c>
+        <v>85.39030249188049</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>36187</v>
+        <v>36129</v>
       </c>
       <c r="C124" t="n">
         <v>94</v>
       </c>
       <c r="D124" t="n">
-        <v>88.12000000000012</v>
+        <v>89.33005000000014</v>
       </c>
       <c r="E124" t="n">
         <v>87.59375</v>
@@ -5083,61 +5339,25 @@
         <v>78.11831262296408</v>
       </c>
       <c r="G124" t="n">
-        <v>98.23263102354042</v>
+        <v>89.2631765969077</v>
       </c>
       <c r="H124" t="n">
-        <v>84.876288</v>
+        <v>86.070048</v>
       </c>
       <c r="I124" t="n">
-        <v>51.48995043768277</v>
+        <v>100</v>
       </c>
       <c r="J124" t="n">
         <v>96.25745249929778</v>
       </c>
       <c r="K124" t="n">
-        <v>97.576831</v>
+        <v>90.63769599999999</v>
       </c>
       <c r="L124" t="n">
-        <v>85.39030249188049</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>36129</v>
-      </c>
-      <c r="C125" t="n">
-        <v>94</v>
-      </c>
-      <c r="D125" t="n">
-        <v>89.33005000000014</v>
-      </c>
-      <c r="E125" t="n">
-        <v>87.59375</v>
-      </c>
-      <c r="F125" t="n">
-        <v>78.11831262296408</v>
-      </c>
-      <c r="G125" t="n">
-        <v>89.2631765969077</v>
-      </c>
-      <c r="H125" t="n">
-        <v>86.070048</v>
-      </c>
-      <c r="I125" t="n">
-        <v>100</v>
-      </c>
-      <c r="J125" t="n">
-        <v>96.25745249929778</v>
-      </c>
-      <c r="K125" t="n">
-        <v>90.63769599999999</v>
-      </c>
-      <c r="L125" t="n">
         <v>90.68879597370052</v>
       </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
